--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>589.830203347047</v>
+        <v>699.4199271610073</v>
       </c>
       <c r="AB2" t="n">
-        <v>807.0317056914988</v>
+        <v>956.977200571154</v>
       </c>
       <c r="AC2" t="n">
-        <v>730.0097323764144</v>
+        <v>865.6446396745788</v>
       </c>
       <c r="AD2" t="n">
-        <v>589830.203347047</v>
+        <v>699419.9271610073</v>
       </c>
       <c r="AE2" t="n">
-        <v>807031.7056914988</v>
+        <v>956977.200571154</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.538273992928657e-07</v>
+        <v>1.76483041446799e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.93098958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>730009.7323764144</v>
+        <v>865644.6396745788</v>
       </c>
     </row>
     <row r="3">
@@ -5183,28 +5183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>430.4226442041841</v>
+        <v>503.6815887408248</v>
       </c>
       <c r="AB3" t="n">
-        <v>588.9232507070582</v>
+        <v>689.1593705786227</v>
       </c>
       <c r="AC3" t="n">
-        <v>532.7172422185495</v>
+        <v>623.3869674918498</v>
       </c>
       <c r="AD3" t="n">
-        <v>430422.6442041841</v>
+        <v>503681.5887408248</v>
       </c>
       <c r="AE3" t="n">
-        <v>588923.2507070581</v>
+        <v>689159.3705786227</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.215182268857329e-06</v>
+        <v>2.248405349638263e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.50651041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>532717.2422185495</v>
+        <v>623386.9674918498</v>
       </c>
     </row>
     <row r="4">
@@ -5289,28 +5289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>386.4764109216466</v>
+        <v>459.6500146037156</v>
       </c>
       <c r="AB4" t="n">
-        <v>528.7940755589095</v>
+        <v>628.9134283082765</v>
       </c>
       <c r="AC4" t="n">
-        <v>478.3267111547127</v>
+        <v>568.8908133960742</v>
       </c>
       <c r="AD4" t="n">
-        <v>386476.4109216466</v>
+        <v>459650.0146037156</v>
       </c>
       <c r="AE4" t="n">
-        <v>528794.0755589096</v>
+        <v>628913.4283082765</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.316484415317074e-06</v>
+        <v>2.435840842952454e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.54296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>478326.7111547127</v>
+        <v>568890.8133960742</v>
       </c>
     </row>
     <row r="5">
@@ -5395,28 +5395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>371.071956894479</v>
+        <v>432.0500494714209</v>
       </c>
       <c r="AB5" t="n">
-        <v>507.7170219623907</v>
+        <v>591.1499383897449</v>
       </c>
       <c r="AC5" t="n">
-        <v>459.2612219716151</v>
+        <v>534.7314179539762</v>
       </c>
       <c r="AD5" t="n">
-        <v>371071.956894479</v>
+        <v>432050.0494714209</v>
       </c>
       <c r="AE5" t="n">
-        <v>507717.0219623907</v>
+        <v>591149.9383897448</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.371103544975094e-06</v>
+        <v>2.53690053289605e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>12</v>
+        <v>11.08072916666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>459261.2219716151</v>
+        <v>534731.4179539762</v>
       </c>
     </row>
     <row r="6">
@@ -5501,28 +5501,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>348.8818000017278</v>
+        <v>421.9700628292252</v>
       </c>
       <c r="AB6" t="n">
-        <v>477.3554703410978</v>
+        <v>577.3580559682672</v>
       </c>
       <c r="AC6" t="n">
-        <v>431.7973342243532</v>
+        <v>522.2558134337759</v>
       </c>
       <c r="AD6" t="n">
-        <v>348881.8000017278</v>
+        <v>421970.0628292252</v>
       </c>
       <c r="AE6" t="n">
-        <v>477355.4703410979</v>
+        <v>577358.0559682671</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.40618583210159e-06</v>
+        <v>2.601811949129051e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.80729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>431797.3342243532</v>
+        <v>522255.8134337759</v>
       </c>
     </row>
     <row r="7">
@@ -5607,28 +5607,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>342.4094523004249</v>
+        <v>415.4977151279223</v>
       </c>
       <c r="AB7" t="n">
-        <v>468.4997186763472</v>
+        <v>568.5023043035164</v>
       </c>
       <c r="AC7" t="n">
-        <v>423.7867630693607</v>
+        <v>514.2452422787834</v>
       </c>
       <c r="AD7" t="n">
-        <v>342409.4523004249</v>
+        <v>415497.7151279224</v>
       </c>
       <c r="AE7" t="n">
-        <v>468499.7186763472</v>
+        <v>568502.3043035164</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.426889750053156e-06</v>
+        <v>2.64011961792391e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.65104166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>423786.7630693607</v>
+        <v>514245.2422787833</v>
       </c>
     </row>
     <row r="8">
@@ -5713,28 +5713,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>336.0251274150964</v>
+        <v>397.0884713380589</v>
       </c>
       <c r="AB8" t="n">
-        <v>459.7644037117051</v>
+        <v>543.3139647917086</v>
       </c>
       <c r="AC8" t="n">
-        <v>415.8851343048526</v>
+        <v>491.460842537926</v>
       </c>
       <c r="AD8" t="n">
-        <v>336025.1274150964</v>
+        <v>397088.4713380589</v>
       </c>
       <c r="AE8" t="n">
-        <v>459764.4037117051</v>
+        <v>543313.9647917086</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.447406935937514e-06</v>
+        <v>2.678081783505286e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.50130208333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>415885.1343048526</v>
+        <v>491460.842537926</v>
       </c>
     </row>
     <row r="9">
@@ -5819,28 +5819,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>332.6507524007699</v>
+        <v>393.5435041231401</v>
       </c>
       <c r="AB9" t="n">
-        <v>455.1474349501844</v>
+        <v>538.4635842553408</v>
       </c>
       <c r="AC9" t="n">
-        <v>411.7088025619751</v>
+        <v>487.0733755123974</v>
       </c>
       <c r="AD9" t="n">
-        <v>332650.7524007699</v>
+        <v>393543.5041231401</v>
       </c>
       <c r="AE9" t="n">
-        <v>455147.4349501844</v>
+        <v>538463.5842553409</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.457933956226304e-06</v>
+        <v>2.697559527165355e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.42317708333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>411708.8025619751</v>
+        <v>487073.3755123974</v>
       </c>
     </row>
     <row r="10">
@@ -5925,28 +5925,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>328.1835485344694</v>
+        <v>389.0763002568397</v>
       </c>
       <c r="AB10" t="n">
-        <v>449.0352095411867</v>
+        <v>532.3513588463431</v>
       </c>
       <c r="AC10" t="n">
-        <v>406.1799193674498</v>
+        <v>481.5444923178723</v>
       </c>
       <c r="AD10" t="n">
-        <v>328183.5485344694</v>
+        <v>389076.3002568397</v>
       </c>
       <c r="AE10" t="n">
-        <v>449035.2095411867</v>
+        <v>532351.3588463431</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.468787757632705e-06</v>
+        <v>2.717641901449019e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.34505208333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>406179.9193674498</v>
+        <v>481544.4923178722</v>
       </c>
     </row>
     <row r="11">
@@ -6031,28 +6031,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>326.3572349695369</v>
+        <v>387.2499866919072</v>
       </c>
       <c r="AB11" t="n">
-        <v>446.5363667503779</v>
+        <v>529.8525160555344</v>
       </c>
       <c r="AC11" t="n">
-        <v>403.919562625448</v>
+        <v>479.2841355758703</v>
       </c>
       <c r="AD11" t="n">
-        <v>326357.2349695369</v>
+        <v>387249.9866919072</v>
       </c>
       <c r="AE11" t="n">
-        <v>446536.3667503779</v>
+        <v>529852.5160555344</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.47296588763646e-06</v>
+        <v>2.725372535850687e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.31901041666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>403919.562625448</v>
+        <v>479284.1355758703</v>
       </c>
     </row>
     <row r="12">
@@ -6137,28 +6137,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>322.6558926195679</v>
+        <v>383.5486443419382</v>
       </c>
       <c r="AB12" t="n">
-        <v>441.4720268554504</v>
+        <v>524.7881761606069</v>
       </c>
       <c r="AC12" t="n">
-        <v>399.3385562222467</v>
+        <v>474.703129172669</v>
       </c>
       <c r="AD12" t="n">
-        <v>322655.8926195679</v>
+        <v>383548.6443419382</v>
       </c>
       <c r="AE12" t="n">
-        <v>441472.0268554504</v>
+        <v>524788.1761606069</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.480761951442348e-06</v>
+        <v>2.739797295013576e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>399338.5562222467</v>
+        <v>474703.129172669</v>
       </c>
     </row>
     <row r="13">
@@ -6243,28 +6243,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>319.362222086873</v>
+        <v>380.2549738092432</v>
       </c>
       <c r="AB13" t="n">
-        <v>436.9654815261285</v>
+        <v>520.281630831285</v>
       </c>
       <c r="AC13" t="n">
-        <v>395.2621092541792</v>
+        <v>470.6266822046015</v>
       </c>
       <c r="AD13" t="n">
-        <v>319362.222086873</v>
+        <v>380254.9738092432</v>
       </c>
       <c r="AE13" t="n">
-        <v>436965.4815261285</v>
+        <v>520281.630831285</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.485640326698128e-06</v>
+        <v>2.748823566465803e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.22786458333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>395262.1092541792</v>
+        <v>470626.6822046015</v>
       </c>
     </row>
     <row r="14">
@@ -6349,28 +6349,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>315.6384547700117</v>
+        <v>376.531206492382</v>
       </c>
       <c r="AB14" t="n">
-        <v>431.8704588021793</v>
+        <v>515.1866081073358</v>
       </c>
       <c r="AC14" t="n">
-        <v>390.6533483480944</v>
+        <v>466.0179212985167</v>
       </c>
       <c r="AD14" t="n">
-        <v>315638.4547700117</v>
+        <v>376531.206492382</v>
       </c>
       <c r="AE14" t="n">
-        <v>431870.4588021793</v>
+        <v>515186.6081073359</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.491405679273141e-06</v>
+        <v>2.759490978182072e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.18880208333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>390653.3483480944</v>
+        <v>466017.9212985167</v>
       </c>
     </row>
     <row r="15">
@@ -6455,28 +6455,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>313.0198664832847</v>
+        <v>373.912618205655</v>
       </c>
       <c r="AB15" t="n">
-        <v>428.2875907843175</v>
+        <v>511.603740089474</v>
       </c>
       <c r="AC15" t="n">
-        <v>387.4124242252705</v>
+        <v>462.7769971756928</v>
       </c>
       <c r="AD15" t="n">
-        <v>313019.8664832847</v>
+        <v>373912.618205655</v>
       </c>
       <c r="AE15" t="n">
-        <v>428287.5907843175</v>
+        <v>511603.740089474</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.497521154474167e-06</v>
+        <v>2.77080620842362e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.14973958333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>387412.4242252705</v>
+        <v>462776.9971756928</v>
       </c>
     </row>
     <row r="16">
@@ -6561,28 +6561,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>308.8998755951524</v>
+        <v>369.7926273175227</v>
       </c>
       <c r="AB16" t="n">
-        <v>422.6504374900049</v>
+        <v>505.9665867951613</v>
       </c>
       <c r="AC16" t="n">
-        <v>382.3132729295727</v>
+        <v>457.677845879995</v>
       </c>
       <c r="AD16" t="n">
-        <v>308899.8755951524</v>
+        <v>369792.6273175227</v>
       </c>
       <c r="AE16" t="n">
-        <v>422650.4374900049</v>
+        <v>505966.5867951614</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.503286507049181e-06</v>
+        <v>2.781473620139888e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.11067708333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>382313.2729295727</v>
+        <v>457677.845879995</v>
       </c>
     </row>
     <row r="17">
@@ -6667,28 +6667,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>306.1905921093725</v>
+        <v>367.0833438317427</v>
       </c>
       <c r="AB17" t="n">
-        <v>418.9434762996091</v>
+        <v>502.2596256047656</v>
       </c>
       <c r="AC17" t="n">
-        <v>378.9600989124356</v>
+        <v>454.3246718628579</v>
       </c>
       <c r="AD17" t="n">
-        <v>306190.5921093724</v>
+        <v>367083.3438317427</v>
       </c>
       <c r="AE17" t="n">
-        <v>418943.4762996091</v>
+        <v>502259.6256047656</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.502959725931568e-06</v>
+        <v>2.780868989516294e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.11067708333333</v>
       </c>
       <c r="AH17" t="n">
-        <v>378960.0989124356</v>
+        <v>454324.6718628579</v>
       </c>
     </row>
     <row r="18">
@@ -6773,28 +6773,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>306.3208209351101</v>
+        <v>367.2135726574804</v>
       </c>
       <c r="AB18" t="n">
-        <v>419.1216611242735</v>
+        <v>502.4378104294301</v>
       </c>
       <c r="AC18" t="n">
-        <v>379.1212780275181</v>
+        <v>454.4858509779403</v>
       </c>
       <c r="AD18" t="n">
-        <v>306320.8209351101</v>
+        <v>367213.5726574804</v>
       </c>
       <c r="AE18" t="n">
-        <v>419121.6611242736</v>
+        <v>502437.8104294301</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.501862675036728e-06</v>
+        <v>2.778839158137085e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.1171875</v>
       </c>
       <c r="AH18" t="n">
-        <v>379121.2780275181</v>
+        <v>454485.8509779404</v>
       </c>
     </row>
     <row r="19">
@@ -6879,28 +6879,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>304.3575768249361</v>
+        <v>365.2503285473065</v>
       </c>
       <c r="AB19" t="n">
-        <v>416.4354639205163</v>
+        <v>499.7516132256728</v>
       </c>
       <c r="AC19" t="n">
-        <v>376.6914477147859</v>
+        <v>452.0560206652082</v>
       </c>
       <c r="AD19" t="n">
-        <v>304357.5768249361</v>
+        <v>365250.3285473065</v>
       </c>
       <c r="AE19" t="n">
-        <v>416435.4639205163</v>
+        <v>499751.6132256727</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.507814759678948e-06</v>
+        <v>2.789852073066836e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH19" t="n">
-        <v>376691.4477147859</v>
+        <v>452056.0206652082</v>
       </c>
     </row>
     <row r="20">
@@ -6985,28 +6985,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>305.1413814838202</v>
+        <v>366.0341332061904</v>
       </c>
       <c r="AB20" t="n">
-        <v>417.5079000338225</v>
+        <v>500.824049338979</v>
       </c>
       <c r="AC20" t="n">
-        <v>377.6615320306117</v>
+        <v>453.0261049810339</v>
       </c>
       <c r="AD20" t="n">
-        <v>305141.3814838202</v>
+        <v>366034.1332061904</v>
       </c>
       <c r="AE20" t="n">
-        <v>417507.9000338225</v>
+        <v>500824.0493389789</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.507114514426922e-06</v>
+        <v>2.788556436016277e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>11</v>
+        <v>10.08463541666667</v>
       </c>
       <c r="AH20" t="n">
-        <v>377661.5320306117</v>
+        <v>453026.1049810339</v>
       </c>
     </row>
   </sheetData>
@@ -7282,28 +7282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>480.2314454126409</v>
+        <v>562.4921789956411</v>
       </c>
       <c r="AB2" t="n">
-        <v>657.0738499296926</v>
+        <v>769.6266147053909</v>
       </c>
       <c r="AC2" t="n">
-        <v>594.3636439013424</v>
+        <v>696.1745307756455</v>
       </c>
       <c r="AD2" t="n">
-        <v>480231.4454126409</v>
+        <v>562492.1789956411</v>
       </c>
       <c r="AE2" t="n">
-        <v>657073.8499296927</v>
+        <v>769626.6147053909</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.100257772870195e-06</v>
+        <v>2.097261120511787e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.29036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>594363.6439013424</v>
+        <v>696174.5307756455</v>
       </c>
     </row>
     <row r="3">
@@ -7388,28 +7388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>363.3079579888622</v>
+        <v>433.8902307851656</v>
       </c>
       <c r="AB3" t="n">
-        <v>497.0939761362682</v>
+        <v>593.6677556462803</v>
       </c>
       <c r="AC3" t="n">
-        <v>449.6520247295992</v>
+        <v>537.0089382653267</v>
       </c>
       <c r="AD3" t="n">
-        <v>363307.9579888622</v>
+        <v>433890.2307851656</v>
       </c>
       <c r="AE3" t="n">
-        <v>497093.9761362682</v>
+        <v>593667.7556462802</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.339428497539451e-06</v>
+        <v>2.553157433523007e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.73828125</v>
       </c>
       <c r="AH3" t="n">
-        <v>449652.0247295992</v>
+        <v>537008.9382653267</v>
       </c>
     </row>
     <row r="4">
@@ -7494,28 +7494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>340.6274729853724</v>
+        <v>399.4461231575096</v>
       </c>
       <c r="AB4" t="n">
-        <v>466.0615359621133</v>
+        <v>546.5398080233384</v>
       </c>
       <c r="AC4" t="n">
-        <v>421.5812770913624</v>
+        <v>494.3788158190285</v>
       </c>
       <c r="AD4" t="n">
-        <v>340627.4729853724</v>
+        <v>399446.1231575096</v>
       </c>
       <c r="AE4" t="n">
-        <v>466061.5359621133</v>
+        <v>546539.8080233384</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.428263338130889e-06</v>
+        <v>2.722490349784317e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.00911458333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>421581.2770913624</v>
+        <v>494378.8158190285</v>
       </c>
     </row>
     <row r="5">
@@ -7600,28 +7600,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>317.7382125482535</v>
+        <v>388.2351444899852</v>
       </c>
       <c r="AB5" t="n">
-        <v>434.743440029145</v>
+        <v>531.2004524169595</v>
       </c>
       <c r="AC5" t="n">
-        <v>393.2521362790129</v>
+        <v>480.5034267828015</v>
       </c>
       <c r="AD5" t="n">
-        <v>317738.2125482535</v>
+        <v>388235.1444899852</v>
       </c>
       <c r="AE5" t="n">
-        <v>434743.440029145</v>
+        <v>531200.4524169595</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.472427220555933e-06</v>
+        <v>2.80667352560436e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.67708333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>393252.1362790129</v>
+        <v>480503.4267828015</v>
       </c>
     </row>
     <row r="6">
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>308.7451067078651</v>
+        <v>367.4784160254307</v>
       </c>
       <c r="AB6" t="n">
-        <v>422.4386758704971</v>
+        <v>502.8001808095246</v>
       </c>
       <c r="AC6" t="n">
-        <v>382.1217215418215</v>
+        <v>454.8136372375487</v>
       </c>
       <c r="AD6" t="n">
-        <v>308745.1067078651</v>
+        <v>367478.4160254307</v>
       </c>
       <c r="AE6" t="n">
-        <v>422438.6758704971</v>
+        <v>502800.1808095246</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.506932517431488e-06</v>
+        <v>2.872445946734399e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.4296875</v>
       </c>
       <c r="AH6" t="n">
-        <v>382121.7215418215</v>
+        <v>454813.6372375487</v>
       </c>
     </row>
     <row r="7">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>302.6551389985859</v>
+        <v>361.3884483161515</v>
       </c>
       <c r="AB7" t="n">
-        <v>414.1061133802477</v>
+        <v>494.4676183192752</v>
       </c>
       <c r="AC7" t="n">
-        <v>374.5844071208165</v>
+        <v>447.2763228165438</v>
       </c>
       <c r="AD7" t="n">
-        <v>302655.1389985859</v>
+        <v>361388.4483161515</v>
       </c>
       <c r="AE7" t="n">
-        <v>414106.1133802477</v>
+        <v>494467.6183192752</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.526008223891731e-06</v>
+        <v>2.908807187247156e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.29947916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>374584.4071208165</v>
+        <v>447276.3228165438</v>
       </c>
     </row>
     <row r="8">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>298.1421336233322</v>
+        <v>356.8754429408978</v>
       </c>
       <c r="AB8" t="n">
-        <v>407.9312203260802</v>
+        <v>488.2927252651076</v>
       </c>
       <c r="AC8" t="n">
-        <v>368.9988371932219</v>
+        <v>441.6907528889492</v>
       </c>
       <c r="AD8" t="n">
-        <v>298142.1336233322</v>
+        <v>356875.4429408978</v>
       </c>
       <c r="AE8" t="n">
-        <v>407931.2203260802</v>
+        <v>488292.7252651076</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.536705107387792e-06</v>
+        <v>2.929197098066335e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.22786458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>368998.8371932219</v>
+        <v>441690.7528889492</v>
       </c>
     </row>
     <row r="9">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>293.6464415065616</v>
+        <v>352.3797508241272</v>
       </c>
       <c r="AB9" t="n">
-        <v>401.7800160359763</v>
+        <v>482.1415209750038</v>
       </c>
       <c r="AC9" t="n">
-        <v>363.4346952072961</v>
+        <v>436.1266109030234</v>
       </c>
       <c r="AD9" t="n">
-        <v>293646.4415065616</v>
+        <v>352379.7508241272</v>
       </c>
       <c r="AE9" t="n">
-        <v>401780.0160359763</v>
+        <v>482141.5209750038</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.546967354534125e-06</v>
+        <v>2.948758524924464e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.16276041666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>363434.6952072961</v>
+        <v>436126.6109030234</v>
       </c>
     </row>
     <row r="10">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>290.111152475622</v>
+        <v>348.8444617931876</v>
       </c>
       <c r="AB10" t="n">
-        <v>396.9428776179003</v>
+        <v>477.3043825569277</v>
       </c>
       <c r="AC10" t="n">
-        <v>359.0592064908749</v>
+        <v>431.7511221866021</v>
       </c>
       <c r="AD10" t="n">
-        <v>290111.152475622</v>
+        <v>348844.4617931876</v>
       </c>
       <c r="AE10" t="n">
-        <v>396942.8776179003</v>
+        <v>477304.3825569277</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.55710886936109e-06</v>
+        <v>2.968089817348968e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.09765625</v>
       </c>
       <c r="AH10" t="n">
-        <v>359059.2064908749</v>
+        <v>431751.1221866021</v>
       </c>
     </row>
     <row r="11">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>286.3542301182573</v>
+        <v>345.0875394358229</v>
       </c>
       <c r="AB11" t="n">
-        <v>391.802490704837</v>
+        <v>472.1639956438645</v>
       </c>
       <c r="AC11" t="n">
-        <v>354.409410890216</v>
+        <v>427.1013265859434</v>
       </c>
       <c r="AD11" t="n">
-        <v>286354.2301182573</v>
+        <v>345087.5394358229</v>
       </c>
       <c r="AE11" t="n">
-        <v>391802.490704837</v>
+        <v>472163.9956438645</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.562734995443668e-06</v>
+        <v>2.978814081955896e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.05859375</v>
       </c>
       <c r="AH11" t="n">
-        <v>354409.410890216</v>
+        <v>427101.3265859433</v>
       </c>
     </row>
     <row r="12">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>281.2421775793673</v>
+        <v>339.9754868969328</v>
       </c>
       <c r="AB12" t="n">
-        <v>384.8079548932866</v>
+        <v>465.1694598323141</v>
       </c>
       <c r="AC12" t="n">
-        <v>348.0824237596274</v>
+        <v>420.7743394553546</v>
       </c>
       <c r="AD12" t="n">
-        <v>281242.1775793672</v>
+        <v>339975.4868969328</v>
       </c>
       <c r="AE12" t="n">
-        <v>384807.9548932866</v>
+        <v>465169.4598323141</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.568650879092731e-06</v>
+        <v>2.990090669203523e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.01953125</v>
       </c>
       <c r="AH12" t="n">
-        <v>348082.4237596274</v>
+        <v>420774.3394553546</v>
       </c>
     </row>
     <row r="13">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>269.2198135284325</v>
+        <v>339.6314046155927</v>
       </c>
       <c r="AB13" t="n">
-        <v>368.3584260095288</v>
+        <v>464.6986712751456</v>
       </c>
       <c r="AC13" t="n">
-        <v>333.2028148254766</v>
+        <v>420.3484822973264</v>
       </c>
       <c r="AD13" t="n">
-        <v>269219.8135284325</v>
+        <v>339631.4046155927</v>
       </c>
       <c r="AE13" t="n">
-        <v>368358.4260095289</v>
+        <v>464698.6712751456</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.572997242590002e-06</v>
+        <v>2.998375508814025e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.993489583333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>333202.8148254766</v>
+        <v>420348.4822973264</v>
       </c>
     </row>
     <row r="14">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>269.1051508150362</v>
+        <v>339.5167419021963</v>
       </c>
       <c r="AB14" t="n">
-        <v>368.2015394264981</v>
+        <v>464.5417846921148</v>
       </c>
       <c r="AC14" t="n">
-        <v>333.0609012777385</v>
+        <v>420.2065687495884</v>
       </c>
       <c r="AD14" t="n">
-        <v>269105.1508150362</v>
+        <v>339516.7419021963</v>
       </c>
       <c r="AE14" t="n">
-        <v>368201.5394264981</v>
+        <v>464541.7846921148</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.572973096126128e-06</v>
+        <v>2.9983294819273e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.993489583333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>333060.9012777386</v>
+        <v>420206.5687495884</v>
       </c>
     </row>
   </sheetData>
@@ -8851,28 +8851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>269.3801895797887</v>
+        <v>331.9902523263419</v>
       </c>
       <c r="AB2" t="n">
-        <v>368.5778595982866</v>
+        <v>454.2437096091453</v>
       </c>
       <c r="AC2" t="n">
-        <v>333.4013059805002</v>
+        <v>410.8913274990982</v>
       </c>
       <c r="AD2" t="n">
-        <v>269380.1895797888</v>
+        <v>331990.2523263419</v>
       </c>
       <c r="AE2" t="n">
-        <v>368577.8595982866</v>
+        <v>454243.7096091453</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.554341784748361e-06</v>
+        <v>3.310341225708083e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.28255208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>333401.3059805002</v>
+        <v>410891.3274990982</v>
       </c>
     </row>
     <row r="3">
@@ -8957,28 +8957,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>232.4574508290827</v>
+        <v>284.6894119390195</v>
       </c>
       <c r="AB3" t="n">
-        <v>318.0585395231506</v>
+        <v>389.5246130254095</v>
       </c>
       <c r="AC3" t="n">
-        <v>287.7034789091194</v>
+        <v>352.3489306594915</v>
       </c>
       <c r="AD3" t="n">
-        <v>232457.4508290828</v>
+        <v>284689.4119390195</v>
       </c>
       <c r="AE3" t="n">
-        <v>318058.5395231505</v>
+        <v>389524.6130254095</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.709889127754745e-06</v>
+        <v>3.641616359115599e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>287703.4789091194</v>
+        <v>352348.9306594916</v>
       </c>
     </row>
     <row r="4">
@@ -9063,28 +9063,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>209.3809217402912</v>
+        <v>271.9908949782958</v>
       </c>
       <c r="AB4" t="n">
-        <v>286.4842143592698</v>
+        <v>372.1499419007173</v>
       </c>
       <c r="AC4" t="n">
-        <v>259.1425630240255</v>
+        <v>336.632473761436</v>
       </c>
       <c r="AD4" t="n">
-        <v>209380.9217402912</v>
+        <v>271990.8949782958</v>
       </c>
       <c r="AE4" t="n">
-        <v>286484.2143592698</v>
+        <v>372149.9419007173</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.769839385539121e-06</v>
+        <v>3.769294719037948e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.908854166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>259142.5630240256</v>
+        <v>336632.473761436</v>
       </c>
     </row>
     <row r="5">
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>207.1552966381531</v>
+        <v>259.4725090941101</v>
       </c>
       <c r="AB5" t="n">
-        <v>283.4390159068763</v>
+        <v>355.0217340617667</v>
       </c>
       <c r="AC5" t="n">
-        <v>256.3879940379646</v>
+        <v>321.138958039044</v>
       </c>
       <c r="AD5" t="n">
-        <v>207155.2966381531</v>
+        <v>259472.5090941101</v>
       </c>
       <c r="AE5" t="n">
-        <v>283439.0159068763</v>
+        <v>355021.7340617666</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.781559997735168e-06</v>
+        <v>3.794256555696925e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH5" t="n">
-        <v>256387.9940379646</v>
+        <v>321138.9580390441</v>
       </c>
     </row>
     <row r="6">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>207.8207463064968</v>
+        <v>260.1379587624538</v>
       </c>
       <c r="AB6" t="n">
-        <v>284.3495135006711</v>
+        <v>355.9322316555618</v>
       </c>
       <c r="AC6" t="n">
-        <v>257.2115950192993</v>
+        <v>321.9625590203789</v>
       </c>
       <c r="AD6" t="n">
-        <v>207820.7463064968</v>
+        <v>260137.9587624538</v>
       </c>
       <c r="AE6" t="n">
-        <v>284349.5135006711</v>
+        <v>355932.2316555618</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.781290558374339e-06</v>
+        <v>3.793682720371431e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.850260416666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>257211.5950192993</v>
+        <v>321962.5590203789</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>336.2055774903211</v>
+        <v>401.9511024215026</v>
       </c>
       <c r="AB2" t="n">
-        <v>460.011303465523</v>
+        <v>549.9672311642192</v>
       </c>
       <c r="AC2" t="n">
-        <v>416.1084702926921</v>
+        <v>497.4791305057622</v>
       </c>
       <c r="AD2" t="n">
-        <v>336205.5774903211</v>
+        <v>401951.1024215026</v>
       </c>
       <c r="AE2" t="n">
-        <v>460011.3034655231</v>
+        <v>549967.2311642192</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.373392829560699e-06</v>
+        <v>2.788462269394112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.22005208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>416108.4702926921</v>
+        <v>497479.1305057622</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>273.8600993556127</v>
+        <v>339.6055347782432</v>
       </c>
       <c r="AB3" t="n">
-        <v>374.7074697932394</v>
+        <v>464.6632750223873</v>
       </c>
       <c r="AC3" t="n">
-        <v>338.9459147814088</v>
+        <v>420.3164642132523</v>
       </c>
       <c r="AD3" t="n">
-        <v>273860.0993556127</v>
+        <v>339605.5347782432</v>
       </c>
       <c r="AE3" t="n">
-        <v>374707.4697932394</v>
+        <v>464663.2750223873</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.565349744816391e-06</v>
+        <v>3.17820117294656e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.72265625</v>
       </c>
       <c r="AH3" t="n">
-        <v>338945.9147814087</v>
+        <v>420316.4642132523</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>260.2556146502802</v>
+        <v>315.0293435352613</v>
       </c>
       <c r="AB4" t="n">
-        <v>356.0932136318974</v>
+        <v>431.0370459387027</v>
       </c>
       <c r="AC4" t="n">
-        <v>322.1081771028326</v>
+        <v>389.8994752386057</v>
       </c>
       <c r="AD4" t="n">
-        <v>260255.6146502802</v>
+        <v>315029.3435352613</v>
       </c>
       <c r="AE4" t="n">
-        <v>356093.2136318974</v>
+        <v>431037.0459387027</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.634043873882649e-06</v>
+        <v>3.317674004686492e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.26692708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>322108.1771028326</v>
+        <v>389899.4752386057</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>251.1728247328339</v>
+        <v>305.9465536178182</v>
       </c>
       <c r="AB5" t="n">
-        <v>343.6657397622743</v>
+        <v>418.6095720692462</v>
       </c>
       <c r="AC5" t="n">
-        <v>310.8667638973605</v>
+        <v>378.658062033181</v>
       </c>
       <c r="AD5" t="n">
-        <v>251172.8247328339</v>
+        <v>305946.5536178182</v>
       </c>
       <c r="AE5" t="n">
-        <v>343665.7397622743</v>
+        <v>418609.5720692462</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.670079293182697e-06</v>
+        <v>3.390838364451004e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.04557291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>310866.7638973605</v>
+        <v>378658.062033181</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>233.1637418950025</v>
+        <v>298.8238364630643</v>
       </c>
       <c r="AB6" t="n">
-        <v>319.0249181189042</v>
+        <v>408.8639562260084</v>
       </c>
       <c r="AC6" t="n">
-        <v>288.5776276880155</v>
+        <v>369.842554087964</v>
       </c>
       <c r="AD6" t="n">
-        <v>233163.7418950025</v>
+        <v>298823.8364630642</v>
       </c>
       <c r="AE6" t="n">
-        <v>319024.9181189042</v>
+        <v>408863.9562260084</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.687865015154823e-06</v>
+        <v>3.426949529141642e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.94140625</v>
       </c>
       <c r="AH6" t="n">
-        <v>288577.6276880155</v>
+        <v>369842.554087964</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>227.970492872241</v>
+        <v>282.8294731032455</v>
       </c>
       <c r="AB7" t="n">
-        <v>311.9192856959883</v>
+        <v>386.9797626555931</v>
       </c>
       <c r="AC7" t="n">
-        <v>282.1501468507226</v>
+        <v>350.0469572372506</v>
       </c>
       <c r="AD7" t="n">
-        <v>227970.492872241</v>
+        <v>282829.4731032455</v>
       </c>
       <c r="AE7" t="n">
-        <v>311919.2856959883</v>
+        <v>386979.7626555931</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.703201978304701e-06</v>
+        <v>3.458088866809657e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.850260416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>282150.1468507226</v>
+        <v>350046.9572372506</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>228.6324391530835</v>
+        <v>283.491419384088</v>
       </c>
       <c r="AB8" t="n">
-        <v>312.8249898004455</v>
+        <v>387.8854667600507</v>
       </c>
       <c r="AC8" t="n">
-        <v>282.9694118266144</v>
+        <v>350.8662222131426</v>
       </c>
       <c r="AD8" t="n">
-        <v>228632.4391530835</v>
+        <v>283491.419384088</v>
       </c>
       <c r="AE8" t="n">
-        <v>312824.9898004454</v>
+        <v>387885.4667600507</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.701784275828662e-06</v>
+        <v>3.455210440638664e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.86328125</v>
       </c>
       <c r="AH8" t="n">
-        <v>282969.4118266143</v>
+        <v>350866.2222131426</v>
       </c>
     </row>
   </sheetData>
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.4314300015064</v>
+        <v>280.6250189288984</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.6040072762744</v>
+        <v>383.9635312005972</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.8193441257988</v>
+        <v>347.3185906790121</v>
       </c>
       <c r="AD2" t="n">
-        <v>220431.4300015064</v>
+        <v>280625.0189288984</v>
       </c>
       <c r="AE2" t="n">
-        <v>301604.0072762744</v>
+        <v>383963.5312005972</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.703862072832857e-06</v>
+        <v>3.794168030973228e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.69010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>272819.3441257987</v>
+        <v>347318.5906790121</v>
       </c>
     </row>
     <row r="3">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.7831384477334</v>
+        <v>250.8913865205503</v>
       </c>
       <c r="AB3" t="n">
-        <v>261.0379067821125</v>
+        <v>343.2806635840504</v>
       </c>
       <c r="AC3" t="n">
-        <v>236.1248153279071</v>
+        <v>310.5184388491284</v>
       </c>
       <c r="AD3" t="n">
-        <v>190783.1384477335</v>
+        <v>250891.3865205503</v>
       </c>
       <c r="AE3" t="n">
-        <v>261037.9067821125</v>
+        <v>343280.6635840504</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.833369917943067e-06</v>
+        <v>4.082556706038003e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.934895833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>236124.8153279071</v>
+        <v>310518.4388491284</v>
       </c>
     </row>
     <row r="4">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.7498119019427</v>
+        <v>249.8580599747596</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.6240638150125</v>
+        <v>341.8668206169504</v>
       </c>
       <c r="AC4" t="n">
-        <v>234.8459075492456</v>
+        <v>309.2395310704669</v>
       </c>
       <c r="AD4" t="n">
-        <v>189749.8119019427</v>
+        <v>249858.0599747596</v>
       </c>
       <c r="AE4" t="n">
-        <v>259624.0638150125</v>
+        <v>341866.8206169504</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.838043169916577e-06</v>
+        <v>4.092963125384551e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.908854166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>234845.9075492456</v>
+        <v>309239.5310704669</v>
       </c>
     </row>
   </sheetData>
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>503.1250627196892</v>
+        <v>598.0575644858524</v>
       </c>
       <c r="AB2" t="n">
-        <v>688.3979071243098</v>
+        <v>818.2887441671688</v>
       </c>
       <c r="AC2" t="n">
-        <v>622.6981770408956</v>
+        <v>740.1924148993191</v>
       </c>
       <c r="AD2" t="n">
-        <v>503125.0627196892</v>
+        <v>598057.5644858524</v>
       </c>
       <c r="AE2" t="n">
-        <v>688397.9071243098</v>
+        <v>818288.7441671689</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.061347682481063e-06</v>
+        <v>2.006757637812231e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.68098958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>622698.1770408957</v>
+        <v>740192.4148993192</v>
       </c>
     </row>
     <row r="3">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>378.2454146363626</v>
+        <v>461.2153452203622</v>
       </c>
       <c r="AB3" t="n">
-        <v>517.532063315456</v>
+        <v>631.0551827154853</v>
       </c>
       <c r="AC3" t="n">
-        <v>468.1395295534409</v>
+        <v>570.8281617686303</v>
       </c>
       <c r="AD3" t="n">
-        <v>378245.4146363626</v>
+        <v>461215.3452203622</v>
       </c>
       <c r="AE3" t="n">
-        <v>517532.063315456</v>
+        <v>631055.1827154853</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.30272513323268e-06</v>
+        <v>2.463145352118185e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.95963541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>468139.5295534409</v>
+        <v>570828.1617686303</v>
       </c>
     </row>
     <row r="4">
@@ -11226,28 +11226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>351.1841121275324</v>
+        <v>410.5703532740426</v>
       </c>
       <c r="AB4" t="n">
-        <v>480.5055953624662</v>
+        <v>561.760470435175</v>
       </c>
       <c r="AC4" t="n">
-        <v>434.6468157349103</v>
+        <v>508.1468395726133</v>
       </c>
       <c r="AD4" t="n">
-        <v>351184.1121275324</v>
+        <v>410570.3532740426</v>
       </c>
       <c r="AE4" t="n">
-        <v>480505.5953624662</v>
+        <v>561760.470435175</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.401889221258327e-06</v>
+        <v>2.650641206989195e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.11328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>434646.8157349103</v>
+        <v>508146.8395726133</v>
       </c>
     </row>
     <row r="5">
@@ -11332,28 +11332,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>328.0079967799036</v>
+        <v>399.1860378908831</v>
       </c>
       <c r="AB5" t="n">
-        <v>448.795011885793</v>
+        <v>546.1839478873878</v>
       </c>
       <c r="AC5" t="n">
-        <v>405.9626458391674</v>
+        <v>494.0569184750003</v>
       </c>
       <c r="AD5" t="n">
-        <v>328007.9967799037</v>
+        <v>399186.0378908831</v>
       </c>
       <c r="AE5" t="n">
-        <v>448795.0118857929</v>
+        <v>546183.9478873878</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.445584594022524e-06</v>
+        <v>2.733258830298669e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.77473958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>405962.6458391674</v>
+        <v>494056.9184750002</v>
       </c>
     </row>
     <row r="6">
@@ -11438,28 +11438,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>318.6394599228343</v>
+        <v>378.1109524153651</v>
       </c>
       <c r="AB6" t="n">
-        <v>435.9765664472746</v>
+        <v>517.3480861726327</v>
       </c>
       <c r="AC6" t="n">
-        <v>394.3675748425001</v>
+        <v>467.9731109309152</v>
       </c>
       <c r="AD6" t="n">
-        <v>318639.4599228343</v>
+        <v>378110.9524153651</v>
       </c>
       <c r="AE6" t="n">
-        <v>435976.5664472746</v>
+        <v>517348.0861726328</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.480689255492993e-06</v>
+        <v>2.799633448806336e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.52083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>394367.5748425</v>
+        <v>467973.1109309152</v>
       </c>
     </row>
     <row r="7">
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>313.256972223737</v>
+        <v>372.5578725156756</v>
       </c>
       <c r="AB7" t="n">
-        <v>428.6120093187714</v>
+        <v>509.7501172692826</v>
       </c>
       <c r="AC7" t="n">
-        <v>387.7058807101203</v>
+        <v>461.1002815158844</v>
       </c>
       <c r="AD7" t="n">
-        <v>313256.972223737</v>
+        <v>372557.8725156756</v>
       </c>
       <c r="AE7" t="n">
-        <v>428612.0093187714</v>
+        <v>509750.1172692826</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.500120056525046e-06</v>
+        <v>2.83637250144998e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.38411458333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>387705.8807101203</v>
+        <v>461100.2815158844</v>
       </c>
     </row>
     <row r="8">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>307.3914567083988</v>
+        <v>366.6923570003374</v>
       </c>
       <c r="AB8" t="n">
-        <v>420.5865522224041</v>
+        <v>501.7246601729153</v>
       </c>
       <c r="AC8" t="n">
-        <v>380.4463619752305</v>
+        <v>453.8407627809946</v>
       </c>
       <c r="AD8" t="n">
-        <v>307391.4567083988</v>
+        <v>366692.3570003374</v>
       </c>
       <c r="AE8" t="n">
-        <v>420586.552222404</v>
+        <v>501724.6601729153</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.517947577176375e-06</v>
+        <v>2.870080129799136e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>380446.3619752305</v>
+        <v>453840.7627809946</v>
       </c>
     </row>
     <row r="9">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>303.4526766464936</v>
+        <v>362.7535769384322</v>
       </c>
       <c r="AB9" t="n">
-        <v>415.1973395749928</v>
+        <v>496.335447525504</v>
       </c>
       <c r="AC9" t="n">
-        <v>375.5714882190807</v>
+        <v>448.9658890248448</v>
       </c>
       <c r="AD9" t="n">
-        <v>303452.6766464936</v>
+        <v>362753.5769384322</v>
       </c>
       <c r="AE9" t="n">
-        <v>415197.3395749928</v>
+        <v>496335.447525504</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.526753654491393e-06</v>
+        <v>2.886730340849457e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.20182291666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>375571.4882190807</v>
+        <v>448965.8890248449</v>
       </c>
     </row>
     <row r="10">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>300.8326400451421</v>
+        <v>360.1335403370807</v>
       </c>
       <c r="AB10" t="n">
-        <v>411.6124899091666</v>
+        <v>492.7505978596778</v>
       </c>
       <c r="AC10" t="n">
-        <v>372.3287715739929</v>
+        <v>445.723172379757</v>
       </c>
       <c r="AD10" t="n">
-        <v>300832.640045142</v>
+        <v>360133.5403370807</v>
       </c>
       <c r="AE10" t="n">
-        <v>411612.4899091666</v>
+        <v>492750.5978596778</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.531156693148903e-06</v>
+        <v>2.895055446374618e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.17578125</v>
       </c>
       <c r="AH10" t="n">
-        <v>372328.7715739929</v>
+        <v>445723.172379757</v>
       </c>
     </row>
     <row r="11">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>296.4390459511293</v>
+        <v>355.739946243068</v>
       </c>
       <c r="AB11" t="n">
-        <v>405.600980638047</v>
+        <v>486.7390885885583</v>
       </c>
       <c r="AC11" t="n">
-        <v>366.8909923105027</v>
+        <v>440.2853931162668</v>
       </c>
       <c r="AD11" t="n">
-        <v>296439.0459511293</v>
+        <v>355739.946243068</v>
       </c>
       <c r="AE11" t="n">
-        <v>405600.980638047</v>
+        <v>486739.0885885583</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.543265049457054e-06</v>
+        <v>2.91794948656881e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.09765625</v>
       </c>
       <c r="AH11" t="n">
-        <v>366890.9923105027</v>
+        <v>440285.3931162668</v>
       </c>
     </row>
     <row r="12">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>292.058547371417</v>
+        <v>351.3594476633557</v>
       </c>
       <c r="AB12" t="n">
-        <v>399.6073892273265</v>
+        <v>480.7454971778376</v>
       </c>
       <c r="AC12" t="n">
-        <v>361.4694208519629</v>
+        <v>434.863821657727</v>
       </c>
       <c r="AD12" t="n">
-        <v>292058.5473714171</v>
+        <v>351359.4476633557</v>
       </c>
       <c r="AE12" t="n">
-        <v>399607.3892273264</v>
+        <v>480745.4971778376</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.548362045294279e-06</v>
+        <v>2.927586701116958e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.05859375</v>
       </c>
       <c r="AH12" t="n">
-        <v>361469.4208519629</v>
+        <v>434863.821657727</v>
       </c>
     </row>
     <row r="13">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>288.718963598916</v>
+        <v>348.0198638908547</v>
       </c>
       <c r="AB13" t="n">
-        <v>395.0380233777527</v>
+        <v>476.1761313282639</v>
       </c>
       <c r="AC13" t="n">
-        <v>357.3361488659273</v>
+        <v>430.7305496716914</v>
       </c>
       <c r="AD13" t="n">
-        <v>288718.9635989161</v>
+        <v>348019.8638908546</v>
       </c>
       <c r="AE13" t="n">
-        <v>395038.0233777527</v>
+        <v>476176.1313282639</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.55259757704634e-06</v>
+        <v>2.935595090671052e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.03255208333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>357336.1488659272</v>
+        <v>430730.5496716914</v>
       </c>
     </row>
     <row r="14">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>286.7811662940784</v>
+        <v>346.082066586017</v>
       </c>
       <c r="AB14" t="n">
-        <v>392.3866436156903</v>
+        <v>473.5247515662016</v>
       </c>
       <c r="AC14" t="n">
-        <v>354.9378130671212</v>
+        <v>428.3322138728854</v>
       </c>
       <c r="AD14" t="n">
-        <v>286781.1662940784</v>
+        <v>346082.066586017</v>
       </c>
       <c r="AE14" t="n">
-        <v>392386.6436156903</v>
+        <v>473524.7515662016</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.5522147041196e-06</v>
+        <v>2.934871168451473e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.0390625</v>
       </c>
       <c r="AH14" t="n">
-        <v>354937.8130671212</v>
+        <v>428332.2138728854</v>
       </c>
     </row>
     <row r="15">
@@ -12392,28 +12392,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>285.8054207964797</v>
+        <v>345.1063210884184</v>
       </c>
       <c r="AB15" t="n">
-        <v>391.0515855790225</v>
+        <v>472.1896935295338</v>
       </c>
       <c r="AC15" t="n">
-        <v>353.7301710957073</v>
+        <v>427.1245719014715</v>
       </c>
       <c r="AD15" t="n">
-        <v>285805.4207964797</v>
+        <v>345106.3210884184</v>
       </c>
       <c r="AE15" t="n">
-        <v>391051.5855790225</v>
+        <v>472189.6935295337</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.556976686145928e-06</v>
+        <v>2.943874951057489e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.00651041666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>353730.1710957073</v>
+        <v>427124.5719014715</v>
       </c>
     </row>
     <row r="16">
@@ -12498,28 +12498,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>274.5114371833671</v>
+        <v>345.6041374397748</v>
       </c>
       <c r="AB16" t="n">
-        <v>375.5986589441699</v>
+        <v>472.8708278235671</v>
       </c>
       <c r="AC16" t="n">
-        <v>339.7520500905662</v>
+        <v>427.7406996944603</v>
       </c>
       <c r="AD16" t="n">
-        <v>274511.4371833671</v>
+        <v>345604.1374397748</v>
       </c>
       <c r="AE16" t="n">
-        <v>375598.6589441699</v>
+        <v>472870.8278235671</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.557455277304353e-06</v>
+        <v>2.944779853831963e-06</v>
       </c>
       <c r="AG16" t="n">
         <v>10</v>
       </c>
       <c r="AH16" t="n">
-        <v>339752.0500905662</v>
+        <v>427740.6996944603</v>
       </c>
     </row>
   </sheetData>
@@ -12795,28 +12795,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.1992326161656</v>
+        <v>248.1119261941382</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.5531781152259</v>
+        <v>339.4776833443198</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.5410853267765</v>
+        <v>307.0784097059602</v>
       </c>
       <c r="AD2" t="n">
-        <v>199199.2326161656</v>
+        <v>248111.9261941382</v>
       </c>
       <c r="AE2" t="n">
-        <v>272553.1781152259</v>
+        <v>339477.6833443198</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.794877286620971e-06</v>
+        <v>4.114875984378546e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>246541.0853267765</v>
+        <v>307078.4097059601</v>
       </c>
     </row>
     <row r="3">
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.3101802759817</v>
+        <v>237.9370324756302</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.3400992603375</v>
+        <v>325.555944874034</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.925184523994</v>
+        <v>294.4853424159913</v>
       </c>
       <c r="AD3" t="n">
-        <v>179310.1802759817</v>
+        <v>237937.0324756302</v>
       </c>
       <c r="AE3" t="n">
-        <v>245340.0992603375</v>
+        <v>325555.944874034</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.867560151454542e-06</v>
+        <v>4.281506303458766e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.98046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>221925.184523994</v>
+        <v>294485.3424159914</v>
       </c>
     </row>
   </sheetData>
@@ -13198,28 +13198,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>404.7020760429273</v>
+        <v>473.0739095514202</v>
       </c>
       <c r="AB2" t="n">
-        <v>553.7312346374432</v>
+        <v>647.2805935961742</v>
       </c>
       <c r="AC2" t="n">
-        <v>500.8839027703138</v>
+        <v>585.5050422073734</v>
       </c>
       <c r="AD2" t="n">
-        <v>404702.0760429273</v>
+        <v>473073.9095514202</v>
       </c>
       <c r="AE2" t="n">
-        <v>553731.2346374432</v>
+        <v>647280.5935961741</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.228193894510603e-06</v>
+        <v>2.407243059681998e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.19010416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>500883.9027703138</v>
+        <v>585505.0422073734</v>
       </c>
     </row>
     <row r="3">
@@ -13304,28 +13304,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>324.7908222492065</v>
+        <v>392.9919740485562</v>
       </c>
       <c r="AB3" t="n">
-        <v>444.3931317611697</v>
+        <v>537.7089564755054</v>
       </c>
       <c r="AC3" t="n">
-        <v>401.9808749755607</v>
+        <v>486.3907683487427</v>
       </c>
       <c r="AD3" t="n">
-        <v>324790.8222492065</v>
+        <v>392991.9740485562</v>
       </c>
       <c r="AE3" t="n">
-        <v>444393.1317611698</v>
+        <v>537708.9564755054</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.441948592728783e-06</v>
+        <v>2.82619931411377e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.23046875</v>
       </c>
       <c r="AH3" t="n">
-        <v>401980.8749755607</v>
+        <v>486390.7683487426</v>
       </c>
     </row>
     <row r="4">
@@ -13410,28 +13410,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>295.245784419719</v>
+        <v>363.5321875650893</v>
       </c>
       <c r="AB4" t="n">
-        <v>403.9683075677878</v>
+        <v>497.4007769347728</v>
       </c>
       <c r="AC4" t="n">
-        <v>365.414139266598</v>
+        <v>449.9295448904922</v>
       </c>
       <c r="AD4" t="n">
-        <v>295245.784419719</v>
+        <v>363532.1875650893</v>
       </c>
       <c r="AE4" t="n">
-        <v>403968.3075677878</v>
+        <v>497400.7769347728</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.52240514464191e-06</v>
+        <v>2.983893043959249e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.63802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>365414.139266598</v>
+        <v>449929.5448904922</v>
       </c>
     </row>
     <row r="5">
@@ -13516,28 +13516,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>285.0698413520745</v>
+        <v>341.9610433393389</v>
       </c>
       <c r="AB5" t="n">
-        <v>390.0451333317125</v>
+        <v>467.8861857533821</v>
       </c>
       <c r="AC5" t="n">
-        <v>352.8197732383159</v>
+        <v>423.2317848674646</v>
       </c>
       <c r="AD5" t="n">
-        <v>285069.8413520745</v>
+        <v>341961.0433393389</v>
       </c>
       <c r="AE5" t="n">
-        <v>390045.1333317125</v>
+        <v>467886.185753382</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.563752945903388e-06</v>
+        <v>3.064934163007852e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.35807291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>352819.7732383159</v>
+        <v>423231.7848674646</v>
       </c>
     </row>
     <row r="6">
@@ -13622,28 +13622,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>278.2205341203766</v>
+        <v>335.1117361076409</v>
       </c>
       <c r="AB6" t="n">
-        <v>380.6736090071944</v>
+        <v>458.514661428864</v>
       </c>
       <c r="AC6" t="n">
-        <v>344.3426540423129</v>
+        <v>414.7546656714615</v>
       </c>
       <c r="AD6" t="n">
-        <v>278220.5341203766</v>
+        <v>335111.7361076409</v>
       </c>
       <c r="AE6" t="n">
-        <v>380673.6090071944</v>
+        <v>458514.661428864</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.591666443505902e-06</v>
+        <v>3.11964423254608e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.17578125</v>
       </c>
       <c r="AH6" t="n">
-        <v>344342.6540423129</v>
+        <v>414754.6656714615</v>
       </c>
     </row>
     <row r="7">
@@ -13728,28 +13728,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>272.7061286000894</v>
+        <v>329.5973305873538</v>
       </c>
       <c r="AB7" t="n">
-        <v>373.1285560959358</v>
+        <v>450.9696085176053</v>
       </c>
       <c r="AC7" t="n">
-        <v>337.5176903913564</v>
+        <v>407.929702020505</v>
       </c>
       <c r="AD7" t="n">
-        <v>272706.1286000893</v>
+        <v>329597.3305873538</v>
       </c>
       <c r="AE7" t="n">
-        <v>373128.5560959358</v>
+        <v>450969.6085176052</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.606270029149997e-06</v>
+        <v>3.148267058587915e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.08463541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>337517.6903913564</v>
+        <v>407929.702020505</v>
       </c>
     </row>
     <row r="8">
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>254.9383772686397</v>
+        <v>323.1394395594417</v>
       </c>
       <c r="AB8" t="n">
-        <v>348.8179348662146</v>
+        <v>442.133637111171</v>
       </c>
       <c r="AC8" t="n">
-        <v>315.5272407317336</v>
+        <v>399.9370233237371</v>
       </c>
       <c r="AD8" t="n">
-        <v>254938.3772686397</v>
+        <v>323139.4395594416</v>
       </c>
       <c r="AE8" t="n">
-        <v>348817.9348662146</v>
+        <v>442133.637111171</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.621794113378134e-06</v>
+        <v>3.17869404913324e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.986979166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>315527.2407317336</v>
+        <v>399937.0233237371</v>
       </c>
     </row>
     <row r="9">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>251.9070746677908</v>
+        <v>320.1081369585926</v>
       </c>
       <c r="AB9" t="n">
-        <v>344.6703729161027</v>
+        <v>437.9860751610569</v>
       </c>
       <c r="AC9" t="n">
-        <v>311.7755162729993</v>
+        <v>396.1852988650022</v>
       </c>
       <c r="AD9" t="n">
-        <v>251907.0746677908</v>
+        <v>320108.1369585926</v>
       </c>
       <c r="AE9" t="n">
-        <v>344670.3729161027</v>
+        <v>437986.0751610569</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.625799526135714e-06</v>
+        <v>3.186544602783556e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.9609375</v>
       </c>
       <c r="AH9" t="n">
-        <v>311775.5162729993</v>
+        <v>396185.2988650022</v>
       </c>
     </row>
     <row r="10">
@@ -14046,28 +14046,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>248.6613771930679</v>
+        <v>316.8624394838698</v>
       </c>
       <c r="AB10" t="n">
-        <v>340.2294664411224</v>
+        <v>433.5451686860744</v>
       </c>
       <c r="AC10" t="n">
-        <v>307.7584436791383</v>
+        <v>392.1682262711406</v>
       </c>
       <c r="AD10" t="n">
-        <v>248661.3771930679</v>
+        <v>316862.4394838698</v>
       </c>
       <c r="AE10" t="n">
-        <v>340229.4664411225</v>
+        <v>433545.1686860744</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.631198125939408e-06</v>
+        <v>3.197125783790503e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.928385416666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>307758.4436791383</v>
+        <v>392168.2262711406</v>
       </c>
     </row>
     <row r="11">
@@ -14152,28 +14152,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>248.7309880765957</v>
+        <v>316.9320503673974</v>
       </c>
       <c r="AB11" t="n">
-        <v>340.3247111229804</v>
+        <v>433.6404133679325</v>
       </c>
       <c r="AC11" t="n">
-        <v>307.8445983422366</v>
+        <v>392.2543809342389</v>
       </c>
       <c r="AD11" t="n">
-        <v>248730.9880765956</v>
+        <v>316932.0503673974</v>
       </c>
       <c r="AE11" t="n">
-        <v>340324.7111229804</v>
+        <v>433640.4133679325</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.63545232209808e-06</v>
+        <v>3.205463949468789e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.90234375</v>
       </c>
       <c r="AH11" t="n">
-        <v>307844.5983422365</v>
+        <v>392254.3809342389</v>
       </c>
     </row>
   </sheetData>
@@ -14449,28 +14449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>446.2272290306313</v>
+        <v>539.2235654495247</v>
       </c>
       <c r="AB2" t="n">
-        <v>610.5477809156764</v>
+        <v>737.7894711128142</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.2779576142758</v>
+        <v>667.3758794838329</v>
       </c>
       <c r="AD2" t="n">
-        <v>446227.2290306313</v>
+        <v>539223.5654495247</v>
       </c>
       <c r="AE2" t="n">
-        <v>610547.7809156764</v>
+        <v>737789.4711128143</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.141324494832327e-06</v>
+        <v>2.194428122906352e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.90625</v>
       </c>
       <c r="AH2" t="n">
-        <v>552277.9576142759</v>
+        <v>667375.879483833</v>
       </c>
     </row>
     <row r="3">
@@ -14555,28 +14555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>350.6456140143573</v>
+        <v>420.5208776103848</v>
       </c>
       <c r="AB3" t="n">
-        <v>479.76879848716</v>
+        <v>575.37521681831</v>
       </c>
       <c r="AC3" t="n">
-        <v>433.9803377192825</v>
+        <v>520.4622136693586</v>
       </c>
       <c r="AD3" t="n">
-        <v>350645.6140143573</v>
+        <v>420520.8776103848</v>
       </c>
       <c r="AE3" t="n">
-        <v>479768.79848716</v>
+        <v>575375.2168183101</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.371383453916251e-06</v>
+        <v>2.636763192403387e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.56901041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>433980.3377192825</v>
+        <v>520462.2136693585</v>
       </c>
     </row>
     <row r="4">
@@ -14661,28 +14661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>317.3678442152207</v>
+        <v>387.1577669566766</v>
       </c>
       <c r="AB4" t="n">
-        <v>434.236685736392</v>
+        <v>529.7263369453443</v>
       </c>
       <c r="AC4" t="n">
-        <v>392.7937459047262</v>
+        <v>479.1699988228633</v>
       </c>
       <c r="AD4" t="n">
-        <v>317367.8442152207</v>
+        <v>387157.7669566766</v>
       </c>
       <c r="AE4" t="n">
-        <v>434236.685736392</v>
+        <v>529726.3369453443</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.460160178750289e-06</v>
+        <v>2.807454474783996e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.86588541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>392793.7459047262</v>
+        <v>479169.9988228633</v>
       </c>
     </row>
     <row r="5">
@@ -14767,28 +14767,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>306.1800367195548</v>
+        <v>364.4947639041494</v>
       </c>
       <c r="AB5" t="n">
-        <v>418.9290339495897</v>
+        <v>498.7178163477457</v>
       </c>
       <c r="AC5" t="n">
-        <v>378.947034920032</v>
+        <v>451.1208879103676</v>
       </c>
       <c r="AD5" t="n">
-        <v>306180.0367195549</v>
+        <v>364494.7639041494</v>
       </c>
       <c r="AE5" t="n">
-        <v>418929.0339495897</v>
+        <v>498717.8163477457</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.505840459458413e-06</v>
+        <v>2.895284091253317e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.54036458333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>378947.034920032</v>
+        <v>451120.8879103676</v>
       </c>
     </row>
     <row r="6">
@@ -14873,28 +14873,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>298.4602692783596</v>
+        <v>356.6044042623619</v>
       </c>
       <c r="AB6" t="n">
-        <v>408.3665075644432</v>
+        <v>487.9218781877522</v>
       </c>
       <c r="AC6" t="n">
-        <v>369.3925812284851</v>
+        <v>441.3552989361695</v>
       </c>
       <c r="AD6" t="n">
-        <v>298460.2692783596</v>
+        <v>356604.4042623619</v>
       </c>
       <c r="AE6" t="n">
-        <v>408366.5075644432</v>
+        <v>487921.8781877522</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.533628890625575e-06</v>
+        <v>2.948712993481184e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.34505208333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>369392.5812284851</v>
+        <v>441355.2989361695</v>
       </c>
     </row>
     <row r="7">
@@ -14979,28 +14979,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>292.8408475841514</v>
+        <v>350.9849825681537</v>
       </c>
       <c r="AB7" t="n">
-        <v>400.6777668910391</v>
+        <v>480.2331375143482</v>
       </c>
       <c r="AC7" t="n">
-        <v>362.4376431737354</v>
+        <v>434.4003608814197</v>
       </c>
       <c r="AD7" t="n">
-        <v>292840.8475841514</v>
+        <v>350984.9825681537</v>
       </c>
       <c r="AE7" t="n">
-        <v>400677.7668910392</v>
+        <v>480233.1375143482</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.549960687890486e-06</v>
+        <v>2.980114190404581e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.24088541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>362437.6431737354</v>
+        <v>434400.3608814197</v>
       </c>
     </row>
     <row r="8">
@@ -15085,28 +15085,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>288.614343974586</v>
+        <v>346.7584789585883</v>
       </c>
       <c r="AB8" t="n">
-        <v>394.8948781922522</v>
+        <v>474.4502488155612</v>
       </c>
       <c r="AC8" t="n">
-        <v>357.2066652560254</v>
+        <v>429.1693829637098</v>
       </c>
       <c r="AD8" t="n">
-        <v>288614.343974586</v>
+        <v>346758.4789585883</v>
       </c>
       <c r="AE8" t="n">
-        <v>394894.8781922522</v>
+        <v>474450.2488155612</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.564366795627146e-06</v>
+        <v>3.007812858138502e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.14322916666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>357206.6652560254</v>
+        <v>429169.3829637098</v>
       </c>
     </row>
     <row r="9">
@@ -15191,28 +15191,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>284.4093080841169</v>
+        <v>342.5534430681192</v>
       </c>
       <c r="AB9" t="n">
-        <v>389.1413625738218</v>
+        <v>468.6967331971308</v>
       </c>
       <c r="AC9" t="n">
-        <v>352.002257093108</v>
+        <v>423.9649748007924</v>
       </c>
       <c r="AD9" t="n">
-        <v>284409.3080841169</v>
+        <v>342553.4430681192</v>
       </c>
       <c r="AE9" t="n">
-        <v>389141.3625738217</v>
+        <v>468696.7331971308</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.574019619085213e-06</v>
+        <v>3.026372371543972e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.08463541666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>352002.257093108</v>
+        <v>423964.9748007924</v>
       </c>
     </row>
     <row r="10">
@@ -15297,28 +15297,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>279.5864226518756</v>
+        <v>337.730557635878</v>
       </c>
       <c r="AB10" t="n">
-        <v>382.5424779547407</v>
+        <v>462.0978485780497</v>
       </c>
       <c r="AC10" t="n">
-        <v>346.0331607604793</v>
+        <v>417.9958784681637</v>
       </c>
       <c r="AD10" t="n">
-        <v>279586.4226518756</v>
+        <v>337730.557635878</v>
       </c>
       <c r="AE10" t="n">
-        <v>382542.4779547406</v>
+        <v>462097.8485780497</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.585866266056476e-06</v>
+        <v>3.049149956177958e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.00651041666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>346033.1607604793</v>
+        <v>417995.8784681637</v>
       </c>
     </row>
     <row r="11">
@@ -15403,28 +15403,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>264.5461490312028</v>
+        <v>334.250730918087</v>
       </c>
       <c r="AB11" t="n">
-        <v>361.9637120568934</v>
+        <v>457.3365961436481</v>
       </c>
       <c r="AC11" t="n">
-        <v>327.4184033974433</v>
+        <v>413.6890332836417</v>
       </c>
       <c r="AD11" t="n">
-        <v>264546.1490312028</v>
+        <v>334250.7309180869</v>
       </c>
       <c r="AE11" t="n">
-        <v>361963.7120568934</v>
+        <v>457336.5961436481</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.589815148380231e-06</v>
+        <v>3.056742484389286e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.98046875</v>
       </c>
       <c r="AH11" t="n">
-        <v>327418.4033974434</v>
+        <v>413689.0332836417</v>
       </c>
     </row>
     <row r="12">
@@ -15509,28 +15509,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>261.691701169214</v>
+        <v>331.3962830560982</v>
       </c>
       <c r="AB12" t="n">
-        <v>358.0581305627683</v>
+        <v>453.4310146495231</v>
       </c>
       <c r="AC12" t="n">
-        <v>323.8855651195995</v>
+        <v>410.1561950057979</v>
       </c>
       <c r="AD12" t="n">
-        <v>261691.701169214</v>
+        <v>331396.2830560982</v>
       </c>
       <c r="AE12" t="n">
-        <v>358058.1305627683</v>
+        <v>453431.0146495231</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.590010154914737e-06</v>
+        <v>3.057117424054043e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.98046875</v>
       </c>
       <c r="AH12" t="n">
-        <v>323885.5651195995</v>
+        <v>410156.1950057979</v>
       </c>
     </row>
     <row r="13">
@@ -15615,28 +15615,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>261.5413363755609</v>
+        <v>331.2459182624451</v>
       </c>
       <c r="AB13" t="n">
-        <v>357.8523948184657</v>
+        <v>453.2252789052204</v>
       </c>
       <c r="AC13" t="n">
-        <v>323.6994645059812</v>
+        <v>409.9700943921795</v>
       </c>
       <c r="AD13" t="n">
-        <v>261541.3363755609</v>
+        <v>331245.9182624451</v>
       </c>
       <c r="AE13" t="n">
-        <v>357852.3948184657</v>
+        <v>453225.2789052204</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.594544056842011e-06</v>
+        <v>3.065834771259643e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>9.954427083333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>323699.4645059812</v>
+        <v>409970.0943921795</v>
       </c>
     </row>
     <row r="14">
@@ -15721,28 +15721,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>262.42189762467</v>
+        <v>332.1264795115541</v>
       </c>
       <c r="AB14" t="n">
-        <v>359.0572175671172</v>
+        <v>454.4301016538719</v>
       </c>
       <c r="AC14" t="n">
-        <v>324.7893006624807</v>
+        <v>411.0599305486791</v>
       </c>
       <c r="AD14" t="n">
-        <v>262421.8976246699</v>
+        <v>332126.4795115541</v>
       </c>
       <c r="AE14" t="n">
-        <v>359057.2175671172</v>
+        <v>454430.1016538719</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.594373426124318e-06</v>
+        <v>3.06550669905298e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>9.954427083333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>324789.3006624808</v>
+        <v>411059.9305486791</v>
       </c>
     </row>
   </sheetData>
@@ -16018,28 +16018,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>563.4521228630247</v>
+        <v>660.0243741773888</v>
       </c>
       <c r="AB2" t="n">
-        <v>770.9400522544797</v>
+        <v>903.0744669698319</v>
       </c>
       <c r="AC2" t="n">
-        <v>697.3626156884704</v>
+        <v>816.8863073152053</v>
       </c>
       <c r="AD2" t="n">
-        <v>563452.1228630247</v>
+        <v>660024.3741773888</v>
       </c>
       <c r="AE2" t="n">
-        <v>770940.0522544797</v>
+        <v>903074.4669698318</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.886037585871347e-07</v>
+        <v>1.841693820187757e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.49479166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>697362.6156884704</v>
+        <v>816886.3073152052</v>
       </c>
     </row>
     <row r="3">
@@ -16124,28 +16124,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>416.7851513945661</v>
+        <v>489.2570326847627</v>
       </c>
       <c r="AB3" t="n">
-        <v>570.263831401218</v>
+        <v>669.4230566162181</v>
       </c>
       <c r="AC3" t="n">
-        <v>515.8386517025991</v>
+        <v>605.5342596339264</v>
       </c>
       <c r="AD3" t="n">
-        <v>416785.1513945661</v>
+        <v>489257.0326847627</v>
       </c>
       <c r="AE3" t="n">
-        <v>570263.831401218</v>
+        <v>669423.0566162181</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.243154286079024e-06</v>
+        <v>2.315902146157848e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.32421875</v>
       </c>
       <c r="AH3" t="n">
-        <v>515838.6517025991</v>
+        <v>605534.2596339263</v>
       </c>
     </row>
     <row r="4">
@@ -16230,28 +16230,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>374.3713975825833</v>
+        <v>446.7579380182084</v>
       </c>
       <c r="AB4" t="n">
-        <v>512.2314622729049</v>
+        <v>611.2739203657072</v>
       </c>
       <c r="AC4" t="n">
-        <v>463.3448104349507</v>
+        <v>552.9347953343389</v>
       </c>
       <c r="AD4" t="n">
-        <v>374371.3975825833</v>
+        <v>446757.9380182084</v>
       </c>
       <c r="AE4" t="n">
-        <v>512231.4622729049</v>
+        <v>611273.9203657073</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.345548582746433e-06</v>
+        <v>2.506654954607968e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.38671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>463344.8104349506</v>
+        <v>552934.7953343389</v>
       </c>
     </row>
     <row r="5">
@@ -16336,28 +16336,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>348.4317883238903</v>
+        <v>420.9035801055359</v>
       </c>
       <c r="AB5" t="n">
-        <v>476.7397445103666</v>
+        <v>575.8988472558184</v>
       </c>
       <c r="AC5" t="n">
-        <v>431.2403724027303</v>
+        <v>520.9358695528309</v>
       </c>
       <c r="AD5" t="n">
-        <v>348431.7883238903</v>
+        <v>420903.5801055359</v>
       </c>
       <c r="AE5" t="n">
-        <v>476739.7445103666</v>
+        <v>575898.8472558184</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.395734022726117e-06</v>
+        <v>2.600146622903948e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.9765625</v>
       </c>
       <c r="AH5" t="n">
-        <v>431240.3724027303</v>
+        <v>520935.8695528309</v>
       </c>
     </row>
     <row r="6">
@@ -16442,28 +16442,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>338.9953054838802</v>
+        <v>411.4670972655259</v>
       </c>
       <c r="AB6" t="n">
-        <v>463.8283323804234</v>
+        <v>562.9874351258753</v>
       </c>
       <c r="AC6" t="n">
-        <v>419.5612073251882</v>
+        <v>509.2567044752889</v>
       </c>
       <c r="AD6" t="n">
-        <v>338995.3054838802</v>
+        <v>411467.0972655258</v>
       </c>
       <c r="AE6" t="n">
-        <v>463828.3323804234</v>
+        <v>562987.4351258753</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.429943881952775e-06</v>
+        <v>2.663876995947715e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.70963541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>419561.2073251882</v>
+        <v>509256.7044752889</v>
       </c>
     </row>
     <row r="7">
@@ -16548,28 +16548,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>332.4473723456051</v>
+        <v>392.9969903970244</v>
       </c>
       <c r="AB7" t="n">
-        <v>454.8691613862131</v>
+        <v>537.7158200647855</v>
       </c>
       <c r="AC7" t="n">
-        <v>411.4570870363899</v>
+        <v>486.3969768866949</v>
       </c>
       <c r="AD7" t="n">
-        <v>332447.3723456051</v>
+        <v>392996.9903970244</v>
       </c>
       <c r="AE7" t="n">
-        <v>454869.1613862131</v>
+        <v>537715.8200647854</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.451872072323644e-06</v>
+        <v>2.704727551433816e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.55338541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>411457.0870363899</v>
+        <v>486396.9768866949</v>
       </c>
     </row>
     <row r="8">
@@ -16654,28 +16654,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>327.2553400814632</v>
+        <v>387.6343659322904</v>
       </c>
       <c r="AB8" t="n">
-        <v>447.7651937861167</v>
+        <v>530.378440689842</v>
       </c>
       <c r="AC8" t="n">
-        <v>405.0311121335655</v>
+        <v>479.7598667012194</v>
       </c>
       <c r="AD8" t="n">
-        <v>327255.3400814632</v>
+        <v>387634.3659322904</v>
       </c>
       <c r="AE8" t="n">
-        <v>447765.1937861167</v>
+        <v>530378.440689842</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.466812416621394e-06</v>
+        <v>2.732560279688831e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.44270833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>405031.1121335655</v>
+        <v>479759.8667012194</v>
       </c>
     </row>
     <row r="9">
@@ -16760,28 +16760,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>322.2989688915404</v>
+        <v>382.6779947423676</v>
       </c>
       <c r="AB9" t="n">
-        <v>440.9836680643996</v>
+        <v>523.5969149681249</v>
       </c>
       <c r="AC9" t="n">
-        <v>398.896805708798</v>
+        <v>473.6255602764519</v>
       </c>
       <c r="AD9" t="n">
-        <v>322298.9688915404</v>
+        <v>382677.9947423675</v>
       </c>
       <c r="AE9" t="n">
-        <v>440983.6680643996</v>
+        <v>523596.9149681249</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.480529299653816e-06</v>
+        <v>2.758113792401704e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.34505208333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>398896.8057087979</v>
+        <v>473625.5602764519</v>
       </c>
     </row>
     <row r="10">
@@ -16866,28 +16866,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>320.0777379966125</v>
+        <v>380.4567638474397</v>
       </c>
       <c r="AB10" t="n">
-        <v>437.9444819601683</v>
+        <v>520.5577288638935</v>
       </c>
       <c r="AC10" t="n">
-        <v>396.14767526083</v>
+        <v>470.8764298284838</v>
       </c>
       <c r="AD10" t="n">
-        <v>320077.7379966126</v>
+        <v>380456.7638474397</v>
       </c>
       <c r="AE10" t="n">
-        <v>437944.4819601683</v>
+        <v>520557.7288638936</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.48659954977794e-06</v>
+        <v>2.769422207976181e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.30598958333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>396147.67526083</v>
+        <v>470876.4298284838</v>
       </c>
     </row>
     <row r="11">
@@ -16972,28 +16972,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>315.1961398182139</v>
+        <v>375.575165669041</v>
       </c>
       <c r="AB11" t="n">
-        <v>431.265263971571</v>
+        <v>513.8785108752962</v>
       </c>
       <c r="AC11" t="n">
-        <v>390.1059124627231</v>
+        <v>464.834667030377</v>
       </c>
       <c r="AD11" t="n">
-        <v>315196.1398182139</v>
+        <v>375575.165669041</v>
       </c>
       <c r="AE11" t="n">
-        <v>431265.263971571</v>
+        <v>513878.5108752963</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.498175375596039e-06</v>
+        <v>2.790987093490304e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.22135416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>390105.9124627231</v>
+        <v>464834.667030377</v>
       </c>
     </row>
     <row r="12">
@@ -17078,28 +17078,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>311.9978364095064</v>
+        <v>372.3768622603335</v>
       </c>
       <c r="AB12" t="n">
-        <v>426.8892041485894</v>
+        <v>509.5024510523147</v>
       </c>
       <c r="AC12" t="n">
-        <v>386.1474976474082</v>
+        <v>460.8762522150622</v>
       </c>
       <c r="AD12" t="n">
-        <v>311997.8364095064</v>
+        <v>372376.8622603335</v>
       </c>
       <c r="AE12" t="n">
-        <v>426889.2041485894</v>
+        <v>509502.4510523147</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.504504434833983e-06</v>
+        <v>2.802777650814082e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.18229166666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>386147.4976474082</v>
+        <v>460876.2522150622</v>
       </c>
     </row>
     <row r="13">
@@ -17184,28 +17184,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>309.563788250486</v>
+        <v>369.9428141013131</v>
       </c>
       <c r="AB13" t="n">
-        <v>423.5588320747916</v>
+        <v>506.1720789785168</v>
       </c>
       <c r="AC13" t="n">
-        <v>383.1349716101271</v>
+        <v>457.8637261777811</v>
       </c>
       <c r="AD13" t="n">
-        <v>309563.788250486</v>
+        <v>369942.8141013131</v>
       </c>
       <c r="AE13" t="n">
-        <v>423558.8320747915</v>
+        <v>506172.0789785167</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.50916299888273e-06</v>
+        <v>2.811456202301472e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.14973958333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>383134.9716101271</v>
+        <v>457863.7261777811</v>
       </c>
     </row>
     <row r="14">
@@ -17290,28 +17290,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>305.4296780104152</v>
+        <v>365.8087038612423</v>
       </c>
       <c r="AB14" t="n">
-        <v>417.9023600602549</v>
+        <v>500.5156069639801</v>
       </c>
       <c r="AC14" t="n">
-        <v>378.0183453457495</v>
+        <v>452.7470999134035</v>
       </c>
       <c r="AD14" t="n">
-        <v>305429.6780104152</v>
+        <v>365808.7038612423</v>
       </c>
       <c r="AE14" t="n">
-        <v>417902.3600602549</v>
+        <v>500515.6069639801</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.514433293564141e-06</v>
+        <v>2.821274361559935e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.1171875</v>
       </c>
       <c r="AH14" t="n">
-        <v>378018.3453457495</v>
+        <v>452747.0999134035</v>
       </c>
     </row>
     <row r="15">
@@ -17396,28 +17396,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>302.0102002601472</v>
+        <v>362.3892261109743</v>
       </c>
       <c r="AB15" t="n">
-        <v>413.2236797456269</v>
+        <v>495.8369266493521</v>
       </c>
       <c r="AC15" t="n">
-        <v>373.7861917137805</v>
+        <v>448.5149462814345</v>
       </c>
       <c r="AD15" t="n">
-        <v>302010.2002601472</v>
+        <v>362389.2261109743</v>
       </c>
       <c r="AE15" t="n">
-        <v>413223.6797456269</v>
+        <v>495836.9266493521</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.514056843944041e-06</v>
+        <v>2.820573064470044e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.1171875</v>
       </c>
       <c r="AH15" t="n">
-        <v>373786.1917137805</v>
+        <v>448514.9462814345</v>
       </c>
     </row>
     <row r="16">
@@ -17502,28 +17502,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>299.7146270991338</v>
+        <v>360.0936529499609</v>
       </c>
       <c r="AB16" t="n">
-        <v>410.082775273188</v>
+        <v>492.6960221769132</v>
       </c>
       <c r="AC16" t="n">
-        <v>370.945050755904</v>
+        <v>445.673805323558</v>
       </c>
       <c r="AD16" t="n">
-        <v>299714.6270991338</v>
+        <v>360093.6529499609</v>
       </c>
       <c r="AE16" t="n">
-        <v>410082.775273188</v>
+        <v>492696.0221769132</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.520903521409623e-06</v>
+        <v>2.833327905292422e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.07161458333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>370945.0507559041</v>
+        <v>445673.805323558</v>
       </c>
     </row>
     <row r="17">
@@ -17608,28 +17608,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>298.924629394257</v>
+        <v>359.3036552450841</v>
       </c>
       <c r="AB17" t="n">
-        <v>409.0018655611365</v>
+        <v>491.6151124648618</v>
       </c>
       <c r="AC17" t="n">
-        <v>369.9673015497045</v>
+        <v>444.6960561173585</v>
       </c>
       <c r="AD17" t="n">
-        <v>298924.629394257</v>
+        <v>359303.6552450841</v>
       </c>
       <c r="AE17" t="n">
-        <v>409001.8655611365</v>
+        <v>491615.1124648618</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.520315318878216e-06</v>
+        <v>2.832232128589468e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH17" t="n">
-        <v>369967.3015497045</v>
+        <v>444696.0561173584</v>
       </c>
     </row>
     <row r="18">
@@ -17714,28 +17714,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>298.9473227889903</v>
+        <v>359.3263486398175</v>
       </c>
       <c r="AB18" t="n">
-        <v>409.0329156649725</v>
+        <v>491.6461625686978</v>
       </c>
       <c r="AC18" t="n">
-        <v>369.9953882752096</v>
+        <v>444.7241428428634</v>
       </c>
       <c r="AD18" t="n">
-        <v>298947.3227889903</v>
+        <v>359326.3486398174</v>
       </c>
       <c r="AE18" t="n">
-        <v>409032.9156649725</v>
+        <v>491646.1625686978</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.520574127992035e-06</v>
+        <v>2.832714270338767e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>11</v>
+        <v>10.07161458333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>369995.3882752096</v>
+        <v>444724.1428428635</v>
       </c>
     </row>
   </sheetData>
@@ -18011,28 +18011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>354.6141609191967</v>
+        <v>421.4224027084226</v>
       </c>
       <c r="AB2" t="n">
-        <v>485.1987394422941</v>
+        <v>576.6087232299258</v>
       </c>
       <c r="AC2" t="n">
-        <v>438.8920527306287</v>
+        <v>521.5779959602867</v>
       </c>
       <c r="AD2" t="n">
-        <v>354614.1609191967</v>
+        <v>421422.4027084226</v>
       </c>
       <c r="AE2" t="n">
-        <v>485198.7394422941</v>
+        <v>576608.7232299257</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.322910686992309e-06</v>
+        <v>2.651770972930167e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.52604166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>438892.0527306288</v>
+        <v>521577.9959602866</v>
       </c>
     </row>
     <row r="3">
@@ -18117,28 +18117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>286.6736680094934</v>
+        <v>353.311228089576</v>
       </c>
       <c r="AB3" t="n">
-        <v>392.2395597202315</v>
+        <v>483.4160092634676</v>
       </c>
       <c r="AC3" t="n">
-        <v>354.8047666522114</v>
+        <v>437.2794638179918</v>
       </c>
       <c r="AD3" t="n">
-        <v>286673.6680094934</v>
+        <v>353311.228089576</v>
       </c>
       <c r="AE3" t="n">
-        <v>392239.5597202315</v>
+        <v>483416.0092634676</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.524352111902495e-06</v>
+        <v>3.055559776342888e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.87239583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>354804.7666522114</v>
+        <v>437279.4638179918</v>
       </c>
     </row>
     <row r="4">
@@ -18223,28 +18223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>271.5228922615668</v>
+        <v>327.0400583610916</v>
       </c>
       <c r="AB4" t="n">
-        <v>371.5095999368661</v>
+        <v>447.470635838745</v>
       </c>
       <c r="AC4" t="n">
-        <v>336.0532451358891</v>
+        <v>404.7646663832761</v>
       </c>
       <c r="AD4" t="n">
-        <v>271522.8922615668</v>
+        <v>327040.0583610915</v>
       </c>
       <c r="AE4" t="n">
-        <v>371509.5999368661</v>
+        <v>447470.6358387449</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.59717545239631e-06</v>
+        <v>3.201533969742407e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.37760416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>336053.2451358892</v>
+        <v>404764.6663832761</v>
       </c>
     </row>
     <row r="5">
@@ -18329,28 +18329,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>263.2128371099152</v>
+        <v>318.7300032094398</v>
       </c>
       <c r="AB5" t="n">
-        <v>360.1394158646172</v>
+        <v>436.1004517664961</v>
       </c>
       <c r="AC5" t="n">
-        <v>325.7682154733421</v>
+        <v>394.4796367207292</v>
       </c>
       <c r="AD5" t="n">
-        <v>263212.8371099152</v>
+        <v>318730.0032094398</v>
       </c>
       <c r="AE5" t="n">
-        <v>360139.4158646172</v>
+        <v>436100.4517664961</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.631079922699616e-06</v>
+        <v>3.269495390786853e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.16276041666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>325768.2154733421</v>
+        <v>394479.6367207292</v>
       </c>
     </row>
     <row r="6">
@@ -18435,28 +18435,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>256.4967423727577</v>
+        <v>312.0139084722856</v>
       </c>
       <c r="AB6" t="n">
-        <v>350.950158751884</v>
+        <v>426.9111946539332</v>
       </c>
       <c r="AC6" t="n">
-        <v>317.4559681623504</v>
+        <v>386.1673894097859</v>
       </c>
       <c r="AD6" t="n">
-        <v>256496.7423727577</v>
+        <v>312013.9084722855</v>
       </c>
       <c r="AE6" t="n">
-        <v>350950.158751884</v>
+        <v>426911.1946539332</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.653631995288753e-06</v>
+        <v>3.314700960640741e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.01953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>317455.9681623504</v>
+        <v>386167.3894097859</v>
       </c>
     </row>
     <row r="7">
@@ -18541,28 +18541,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>239.9465277523229</v>
+        <v>306.498746977837</v>
       </c>
       <c r="AB7" t="n">
-        <v>328.3054249642784</v>
+        <v>419.3651073854755</v>
       </c>
       <c r="AC7" t="n">
-        <v>296.9724159853432</v>
+        <v>379.3414901192298</v>
       </c>
       <c r="AD7" t="n">
-        <v>239946.5277523229</v>
+        <v>306498.7469778369</v>
       </c>
       <c r="AE7" t="n">
-        <v>328305.4249642784</v>
+        <v>419365.1073854755</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.668853371596093e-06</v>
+        <v>3.345212169187722e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.928385416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>296972.4159853432</v>
+        <v>379341.4901192298</v>
       </c>
     </row>
     <row r="8">
@@ -18647,28 +18647,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>236.2072402446766</v>
+        <v>291.8096576902248</v>
       </c>
       <c r="AB8" t="n">
-        <v>323.1891668305972</v>
+        <v>399.2668473852813</v>
       </c>
       <c r="AC8" t="n">
-        <v>292.3444463472255</v>
+        <v>361.1613798453691</v>
       </c>
       <c r="AD8" t="n">
-        <v>236207.2402446766</v>
+        <v>291809.6576902248</v>
       </c>
       <c r="AE8" t="n">
-        <v>323189.1668305972</v>
+        <v>399266.8473852813</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.677100404913114e-06</v>
+        <v>3.361743325657993e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.8828125</v>
       </c>
       <c r="AH8" t="n">
-        <v>292344.4463472255</v>
+        <v>361161.3798453691</v>
       </c>
     </row>
     <row r="9">
@@ -18753,28 +18753,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>235.9303306035268</v>
+        <v>291.532748049075</v>
       </c>
       <c r="AB9" t="n">
-        <v>322.810286843185</v>
+        <v>398.8879673978691</v>
       </c>
       <c r="AC9" t="n">
-        <v>292.0017261340504</v>
+        <v>360.8186596321941</v>
       </c>
       <c r="AD9" t="n">
-        <v>235930.3306035268</v>
+        <v>291532.748049075</v>
       </c>
       <c r="AE9" t="n">
-        <v>322810.286843185</v>
+        <v>398887.9673978691</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.678322187626746e-06</v>
+        <v>3.364192385875811e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.876302083333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>292001.7261340504</v>
+        <v>360818.6596321941</v>
       </c>
     </row>
   </sheetData>
@@ -19050,28 +19050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.405381211346</v>
+        <v>351.2768752525783</v>
       </c>
       <c r="AB2" t="n">
-        <v>393.2407220039145</v>
+        <v>480.6325179625744</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.7103794126798</v>
+        <v>434.7616250202012</v>
       </c>
       <c r="AD2" t="n">
-        <v>287405.381211346</v>
+        <v>351276.8752525783</v>
       </c>
       <c r="AE2" t="n">
-        <v>393240.7220039145</v>
+        <v>480632.5179625744</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.491648735135538e-06</v>
+        <v>3.120622438508242e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.57552083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>355710.3794126798</v>
+        <v>434761.6250202012</v>
       </c>
     </row>
     <row r="3">
@@ -19156,28 +19156,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>246.7523347366174</v>
+        <v>299.8933284249601</v>
       </c>
       <c r="AB3" t="n">
-        <v>337.617430331199</v>
+        <v>410.3272823109297</v>
       </c>
       <c r="AC3" t="n">
-        <v>305.3956966295295</v>
+        <v>371.1662223851315</v>
       </c>
       <c r="AD3" t="n">
-        <v>246752.3347366174</v>
+        <v>299893.3284249601</v>
       </c>
       <c r="AE3" t="n">
-        <v>337617.430331199</v>
+        <v>410327.2823109297</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.659723699265514e-06</v>
+        <v>3.472245774526297e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.40364583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>305395.6966295295</v>
+        <v>371166.2223851315</v>
       </c>
     </row>
     <row r="4">
@@ -19262,28 +19262,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>234.6353452788979</v>
+        <v>287.7763389672404</v>
       </c>
       <c r="AB4" t="n">
-        <v>321.0384307913081</v>
+        <v>393.7482827710305</v>
       </c>
       <c r="AC4" t="n">
-        <v>290.3989735369486</v>
+        <v>356.1694992925482</v>
       </c>
       <c r="AD4" t="n">
-        <v>234635.3452788979</v>
+        <v>287776.3389672404</v>
       </c>
       <c r="AE4" t="n">
-        <v>321038.4307913082</v>
+        <v>393748.2827710304</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.718956933193005e-06</v>
+        <v>3.596165404225671e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.0390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>290398.9735369486</v>
+        <v>356169.4992925482</v>
       </c>
     </row>
     <row r="5">
@@ -19368,28 +19368,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>215.5382467557099</v>
+        <v>268.7644917900728</v>
       </c>
       <c r="AB5" t="n">
-        <v>294.9089380873696</v>
+        <v>367.7354347197277</v>
       </c>
       <c r="AC5" t="n">
-        <v>266.7632429436923</v>
+        <v>332.6392809500003</v>
       </c>
       <c r="AD5" t="n">
-        <v>215538.2467557099</v>
+        <v>268764.4917900728</v>
       </c>
       <c r="AE5" t="n">
-        <v>294908.9380873696</v>
+        <v>367735.4347197277</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.748971266588672e-06</v>
+        <v>3.658957266723296e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>266763.2429436923</v>
+        <v>332639.2809500003</v>
       </c>
     </row>
     <row r="6">
@@ -19474,28 +19474,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>215.1090713006156</v>
+        <v>268.3353163349785</v>
       </c>
       <c r="AB6" t="n">
-        <v>294.3217212958251</v>
+        <v>367.1482179281829</v>
       </c>
       <c r="AC6" t="n">
-        <v>266.2320692985686</v>
+        <v>332.1081073048766</v>
       </c>
       <c r="AD6" t="n">
-        <v>215109.0713006156</v>
+        <v>268335.3163349785</v>
       </c>
       <c r="AE6" t="n">
-        <v>294321.7212958251</v>
+        <v>367148.2179281829</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.753240089624628e-06</v>
+        <v>3.667887911477816e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.84375</v>
       </c>
       <c r="AH6" t="n">
-        <v>266232.0692985686</v>
+        <v>332108.1073048766</v>
       </c>
     </row>
   </sheetData>
@@ -36128,28 +36128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.1529116786314</v>
+        <v>301.6598820414267</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.5878085572697</v>
+        <v>412.7443589038245</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.2278492845474</v>
+        <v>373.3526165803887</v>
       </c>
       <c r="AD2" t="n">
-        <v>240152.9116786314</v>
+        <v>301659.8820414267</v>
       </c>
       <c r="AE2" t="n">
-        <v>328587.8085572697</v>
+        <v>412744.3589038245</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.624201260924364e-06</v>
+        <v>3.530779282469157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.99609375</v>
       </c>
       <c r="AH2" t="n">
-        <v>297227.8492845474</v>
+        <v>373352.6165803887</v>
       </c>
     </row>
     <row r="3">
@@ -36234,28 +36234,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>217.0280013946802</v>
+        <v>268.2696760631323</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.947286107744</v>
+        <v>367.0584060123986</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.6070538898421</v>
+        <v>332.0268669122828</v>
       </c>
       <c r="AD3" t="n">
-        <v>217028.0013946802</v>
+        <v>268269.6760631323</v>
       </c>
       <c r="AE3" t="n">
-        <v>296947.286107744</v>
+        <v>367058.4060123985</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.770776256928549e-06</v>
+        <v>3.849412183249595e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.08463541666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>268607.0538898421</v>
+        <v>332026.8669122828</v>
       </c>
     </row>
     <row r="4">
@@ -36340,28 +36340,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.0606617621841</v>
+        <v>249.3875877766534</v>
       </c>
       <c r="AB4" t="n">
-        <v>270.9953352426082</v>
+        <v>341.2230997997334</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.1319207914748</v>
+        <v>308.6572460645769</v>
       </c>
       <c r="AD4" t="n">
-        <v>198060.6617621841</v>
+        <v>249387.5877766534</v>
       </c>
       <c r="AE4" t="n">
-        <v>270995.3352426082</v>
+        <v>341223.0997997334</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.808873687589067e-06</v>
+        <v>3.932230502707683e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.869791666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>245131.9207914748</v>
+        <v>308657.2460645769</v>
       </c>
     </row>
     <row r="5">
@@ -36446,28 +36446,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>198.976841629193</v>
+        <v>250.3037676436624</v>
       </c>
       <c r="AB5" t="n">
-        <v>272.2488929556523</v>
+        <v>342.4766575127775</v>
       </c>
       <c r="AC5" t="n">
-        <v>246.2658407157656</v>
+        <v>309.7911659888678</v>
       </c>
       <c r="AD5" t="n">
-        <v>198976.841629193</v>
+        <v>250303.7676436623</v>
       </c>
       <c r="AE5" t="n">
-        <v>272248.8929556523</v>
+        <v>342476.6575127775</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.808379984383964e-06</v>
+        <v>3.931157263146672e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.876302083333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>246265.8407157657</v>
+        <v>309791.1659888678</v>
       </c>
     </row>
   </sheetData>
@@ -36743,28 +36743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>177.3842363189831</v>
+        <v>224.8608716781648</v>
       </c>
       <c r="AB2" t="n">
-        <v>242.7049377717226</v>
+        <v>307.6645647914505</v>
       </c>
       <c r="AC2" t="n">
-        <v>219.5415191493794</v>
+        <v>278.3014905377742</v>
       </c>
       <c r="AD2" t="n">
-        <v>177384.2363189831</v>
+        <v>224860.8716781648</v>
       </c>
       <c r="AE2" t="n">
-        <v>242704.9377717226</v>
+        <v>307664.5647914505</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.883979752148643e-06</v>
+        <v>4.481096639217052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.17578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>219541.5191493794</v>
+        <v>278301.4905377742</v>
       </c>
     </row>
     <row r="3">
@@ -36849,28 +36849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.4598918285776</v>
+        <v>224.9365271877593</v>
       </c>
       <c r="AB3" t="n">
-        <v>242.8084529776353</v>
+        <v>307.7680799973631</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.6351550093243</v>
+        <v>278.3951263977191</v>
       </c>
       <c r="AD3" t="n">
-        <v>177459.8918285776</v>
+        <v>224936.5271877593</v>
       </c>
       <c r="AE3" t="n">
-        <v>242808.4529776353</v>
+        <v>307768.0799973632</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.89245805845392e-06</v>
+        <v>4.50126251936916e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.13020833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>219635.1550093243</v>
+        <v>278395.1263977191</v>
       </c>
     </row>
   </sheetData>
@@ -37146,28 +37146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>425.2972266230517</v>
+        <v>505.9600207311266</v>
       </c>
       <c r="AB2" t="n">
-        <v>581.9104282550877</v>
+        <v>692.276821745079</v>
       </c>
       <c r="AC2" t="n">
-        <v>526.3737136988368</v>
+        <v>626.2068934943496</v>
       </c>
       <c r="AD2" t="n">
-        <v>425297.2266230517</v>
+        <v>505960.0207311267</v>
       </c>
       <c r="AE2" t="n">
-        <v>581910.4282550877</v>
+        <v>692276.821745079</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.18341828575342e-06</v>
+        <v>2.296515720883603e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>526373.7136988369</v>
+        <v>626206.8934943497</v>
       </c>
     </row>
     <row r="3">
@@ -37252,28 +37252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>337.4205197176803</v>
+        <v>406.3894653240096</v>
       </c>
       <c r="AB3" t="n">
-        <v>461.6736410204641</v>
+        <v>556.0399950941812</v>
       </c>
       <c r="AC3" t="n">
-        <v>417.612156684495</v>
+        <v>502.9723183694263</v>
       </c>
       <c r="AD3" t="n">
-        <v>337420.5197176803</v>
+        <v>406389.4653240096</v>
       </c>
       <c r="AE3" t="n">
-        <v>461673.6410204641</v>
+        <v>556039.9950941813</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.40777266878762e-06</v>
+        <v>2.731892944549839e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.38671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>417612.156684495</v>
+        <v>502972.3183694263</v>
       </c>
     </row>
     <row r="4">
@@ -37358,28 +37358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>305.6560893877046</v>
+        <v>374.7102863400544</v>
       </c>
       <c r="AB4" t="n">
-        <v>418.2121460952274</v>
+        <v>512.6951448215937</v>
       </c>
       <c r="AC4" t="n">
-        <v>378.2985658363316</v>
+        <v>463.7642397719752</v>
       </c>
       <c r="AD4" t="n">
-        <v>305656.0893877046</v>
+        <v>374710.2863400544</v>
       </c>
       <c r="AE4" t="n">
-        <v>418212.1460952273</v>
+        <v>512695.1448215937</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.4927333815991e-06</v>
+        <v>2.896765851262467e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.73567708333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>378298.5658363316</v>
+        <v>463764.2397719751</v>
       </c>
     </row>
     <row r="5">
@@ -37464,28 +37464,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>296.146705674348</v>
+        <v>353.6777358340954</v>
       </c>
       <c r="AB5" t="n">
-        <v>405.200987774212</v>
+        <v>483.9174813286994</v>
       </c>
       <c r="AC5" t="n">
-        <v>366.5291742041986</v>
+        <v>437.7330760931383</v>
       </c>
       <c r="AD5" t="n">
-        <v>296146.705674348</v>
+        <v>353677.7358340953</v>
       </c>
       <c r="AE5" t="n">
-        <v>405200.987774212</v>
+        <v>483917.4813286994</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.534093566334912e-06</v>
+        <v>2.977028523901474e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.44921875</v>
       </c>
       <c r="AH5" t="n">
-        <v>366529.1742041986</v>
+        <v>437733.0760931383</v>
       </c>
     </row>
     <row r="6">
@@ -37570,28 +37570,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>288.5250524994084</v>
+        <v>346.0560826591557</v>
       </c>
       <c r="AB6" t="n">
-        <v>394.7727056566524</v>
+        <v>473.4891992111398</v>
       </c>
       <c r="AC6" t="n">
-        <v>357.0961526957529</v>
+        <v>428.3000545846927</v>
       </c>
       <c r="AD6" t="n">
-        <v>288525.0524994084</v>
+        <v>346056.0826591557</v>
       </c>
       <c r="AE6" t="n">
-        <v>394772.7056566523</v>
+        <v>473489.1992111398</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.562036310189166e-06</v>
+        <v>3.031253603333185e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.26041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>357096.152695753</v>
+        <v>428300.0545846927</v>
       </c>
     </row>
     <row r="7">
@@ -37676,28 +37676,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>283.7462115518802</v>
+        <v>341.2772417116275</v>
       </c>
       <c r="AB7" t="n">
-        <v>388.2340846446612</v>
+        <v>466.9505781991487</v>
       </c>
       <c r="AC7" t="n">
-        <v>351.181568496134</v>
+        <v>422.3854703850737</v>
       </c>
       <c r="AD7" t="n">
-        <v>283746.2115518802</v>
+        <v>341277.2417116275</v>
       </c>
       <c r="AE7" t="n">
-        <v>388234.0846446612</v>
+        <v>466950.5781991486</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.576389279058796e-06</v>
+        <v>3.059106661754935e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.16927083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>351181.568496134</v>
+        <v>422385.4703850737</v>
       </c>
     </row>
     <row r="8">
@@ -37782,28 +37782,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>277.6678925075288</v>
+        <v>335.1989226672761</v>
       </c>
       <c r="AB8" t="n">
-        <v>379.9174603716689</v>
+        <v>458.6339539261564</v>
       </c>
       <c r="AC8" t="n">
-        <v>343.6586711713006</v>
+        <v>414.8625730602404</v>
       </c>
       <c r="AD8" t="n">
-        <v>277667.8925075288</v>
+        <v>335198.9226672761</v>
       </c>
       <c r="AE8" t="n">
-        <v>379917.4603716689</v>
+        <v>458633.9539261564</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.593105687056186e-06</v>
+        <v>3.091546158613201e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.05859375</v>
       </c>
       <c r="AH8" t="n">
-        <v>343658.6711713006</v>
+        <v>414862.5730602404</v>
       </c>
     </row>
     <row r="9">
@@ -37888,28 +37888,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>261.2819571511795</v>
+        <v>330.2508132489578</v>
       </c>
       <c r="AB9" t="n">
-        <v>357.4975007206635</v>
+        <v>451.8637323248322</v>
       </c>
       <c r="AC9" t="n">
-        <v>323.3784410027761</v>
+        <v>408.7384919064809</v>
       </c>
       <c r="AD9" t="n">
-        <v>261281.9571511796</v>
+        <v>330250.8132489578</v>
       </c>
       <c r="AE9" t="n">
-        <v>357497.5007206635</v>
+        <v>451863.7323248322</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.602953350088523e-06</v>
+        <v>3.110656318765345e-06</v>
       </c>
       <c r="AG9" t="n">
         <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>323378.4410027761</v>
+        <v>408738.4919064809</v>
       </c>
     </row>
     <row r="10">
@@ -37994,28 +37994,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>257.7026709188783</v>
+        <v>326.6715270166597</v>
       </c>
       <c r="AB10" t="n">
-        <v>352.600163390498</v>
+        <v>446.9663949948378</v>
       </c>
       <c r="AC10" t="n">
-        <v>318.9484986740516</v>
+        <v>404.3085495778051</v>
       </c>
       <c r="AD10" t="n">
-        <v>257702.6709188783</v>
+        <v>326671.5270166597</v>
       </c>
       <c r="AE10" t="n">
-        <v>352600.163390498</v>
+        <v>446966.3949948378</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.607458655925816e-06</v>
+        <v>3.119399217034952e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.973958333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>318948.4986740516</v>
+        <v>404308.5495778051</v>
       </c>
     </row>
     <row r="11">
@@ -38100,28 +38100,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>256.3045590304467</v>
+        <v>325.2734151282281</v>
       </c>
       <c r="AB11" t="n">
-        <v>350.6872050244036</v>
+        <v>445.0534366287425</v>
       </c>
       <c r="AC11" t="n">
-        <v>317.2181103695627</v>
+        <v>402.578161273316</v>
       </c>
       <c r="AD11" t="n">
-        <v>256304.5590304467</v>
+        <v>325273.4151282281</v>
       </c>
       <c r="AE11" t="n">
-        <v>350687.2050244036</v>
+        <v>445053.4366287425</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.61253020238747e-06</v>
+        <v>3.129240949513306e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>9.94140625</v>
       </c>
       <c r="AH11" t="n">
-        <v>317218.1103695628</v>
+        <v>402578.161273316</v>
       </c>
     </row>
     <row r="12">
@@ -38206,28 +38206,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>256.1279655777842</v>
+        <v>325.0968216755656</v>
       </c>
       <c r="AB12" t="n">
-        <v>350.4455820717176</v>
+        <v>444.8118136760563</v>
       </c>
       <c r="AC12" t="n">
-        <v>316.9995475723611</v>
+        <v>402.3595984761142</v>
       </c>
       <c r="AD12" t="n">
-        <v>256127.9655777842</v>
+        <v>325096.8216755656</v>
       </c>
       <c r="AE12" t="n">
-        <v>350445.5820717176</v>
+        <v>444811.8136760563</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.61255482154505e-06</v>
+        <v>3.129288724913687e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>10</v>
+        <v>9.94140625</v>
       </c>
       <c r="AH12" t="n">
-        <v>316999.5475723611</v>
+        <v>402359.5984761142</v>
       </c>
     </row>
   </sheetData>
@@ -38503,28 +38503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>538.8913175702005</v>
+        <v>622.7992220076228</v>
       </c>
       <c r="AB2" t="n">
-        <v>737.3348749065811</v>
+        <v>852.1413715133492</v>
       </c>
       <c r="AC2" t="n">
-        <v>666.9646693014928</v>
+        <v>770.8141950040409</v>
       </c>
       <c r="AD2" t="n">
-        <v>538891.3175702005</v>
+        <v>622799.2220076228</v>
       </c>
       <c r="AE2" t="n">
-        <v>737334.8749065811</v>
+        <v>852141.3715133492</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.024037985323496e-06</v>
+        <v>1.921496918111984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.08463541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>666964.6693014927</v>
+        <v>770814.195004041</v>
       </c>
     </row>
     <row r="3">
@@ -38609,28 +38609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>402.0936342137185</v>
+        <v>473.9293670924448</v>
       </c>
       <c r="AB3" t="n">
-        <v>550.1622494503879</v>
+        <v>648.4510683439271</v>
       </c>
       <c r="AC3" t="n">
-        <v>497.6555365204088</v>
+        <v>586.5638084879722</v>
       </c>
       <c r="AD3" t="n">
-        <v>402093.6342137185</v>
+        <v>473929.3670924448</v>
       </c>
       <c r="AE3" t="n">
-        <v>550162.2494503879</v>
+        <v>648451.068343927</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.275747542239569e-06</v>
+        <v>2.393802774735827e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.109375</v>
       </c>
       <c r="AH3" t="n">
-        <v>497655.5365204088</v>
+        <v>586563.8084879722</v>
       </c>
     </row>
     <row r="4">
@@ -38715,28 +38715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>363.5676335517358</v>
+        <v>435.3180255758903</v>
       </c>
       <c r="AB4" t="n">
-        <v>497.449275697469</v>
+        <v>595.6213274688104</v>
       </c>
       <c r="AC4" t="n">
-        <v>449.9734149993452</v>
+        <v>538.7760639349698</v>
       </c>
       <c r="AD4" t="n">
-        <v>363567.6335517358</v>
+        <v>435318.0255758903</v>
       </c>
       <c r="AE4" t="n">
-        <v>497449.275697469</v>
+        <v>595621.3274688104</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.369931042801003e-06</v>
+        <v>2.570527963312325e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.27604166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>449973.4149993452</v>
+        <v>538776.0639349698</v>
       </c>
     </row>
     <row r="5">
@@ -38821,28 +38821,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>337.9099350334372</v>
+        <v>409.7455784036123</v>
       </c>
       <c r="AB5" t="n">
-        <v>462.3432806469625</v>
+        <v>560.6319770709532</v>
       </c>
       <c r="AC5" t="n">
-        <v>418.2178868448855</v>
+        <v>507.1260480312224</v>
       </c>
       <c r="AD5" t="n">
-        <v>337909.9350334372</v>
+        <v>409745.5784036124</v>
       </c>
       <c r="AE5" t="n">
-        <v>462343.2806469625</v>
+        <v>560631.9770709532</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.421340525349271e-06</v>
+        <v>2.666992316875367e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.86588541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>418217.8868448855</v>
+        <v>507126.0480312224</v>
       </c>
     </row>
     <row r="6">
@@ -38927,28 +38927,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>328.5855195330282</v>
+        <v>400.4211629032034</v>
       </c>
       <c r="AB6" t="n">
-        <v>449.5852039951236</v>
+        <v>547.8739004191144</v>
       </c>
       <c r="AC6" t="n">
-        <v>406.6774231226251</v>
+        <v>495.585584308962</v>
       </c>
       <c r="AD6" t="n">
-        <v>328585.5195330282</v>
+        <v>400421.1629032034</v>
       </c>
       <c r="AE6" t="n">
-        <v>449585.2039951236</v>
+        <v>547873.9004191144</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.455479078827333e-06</v>
+        <v>2.731049633339241e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.61197916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>406677.4231226251</v>
+        <v>495585.584308962</v>
       </c>
     </row>
     <row r="7">
@@ -39033,28 +39033,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>322.7973725491603</v>
+        <v>382.646274723762</v>
       </c>
       <c r="AB7" t="n">
-        <v>441.6656059367726</v>
+        <v>523.5535142392803</v>
       </c>
       <c r="AC7" t="n">
-        <v>399.5136603877374</v>
+        <v>473.586301652255</v>
       </c>
       <c r="AD7" t="n">
-        <v>322797.3725491603</v>
+        <v>382646.274723762</v>
       </c>
       <c r="AE7" t="n">
-        <v>441665.6059367727</v>
+        <v>523553.5142392803</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.475620588141352e-06</v>
+        <v>2.768843004901319e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.46875</v>
       </c>
       <c r="AH7" t="n">
-        <v>399513.6603877374</v>
+        <v>473586.301652255</v>
       </c>
     </row>
     <row r="8">
@@ -39139,28 +39139,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>318.0699548007693</v>
+        <v>377.9188569753711</v>
       </c>
       <c r="AB8" t="n">
-        <v>435.1973444144725</v>
+        <v>517.0852527169802</v>
       </c>
       <c r="AC8" t="n">
-        <v>393.6627206668635</v>
+        <v>467.735361931381</v>
       </c>
       <c r="AD8" t="n">
-        <v>318069.9548007693</v>
+        <v>377918.8569753711</v>
       </c>
       <c r="AE8" t="n">
-        <v>435197.3444144725</v>
+        <v>517085.2527169802</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.489427841876051e-06</v>
+        <v>2.794750828516312e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.37109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>393662.7206668635</v>
+        <v>467735.361931381</v>
       </c>
     </row>
     <row r="9">
@@ -39245,28 +39245,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>313.5754590937388</v>
+        <v>373.4243612683406</v>
       </c>
       <c r="AB9" t="n">
-        <v>429.0477771049569</v>
+        <v>510.9356854074646</v>
       </c>
       <c r="AC9" t="n">
-        <v>388.1000594303962</v>
+        <v>462.1727006949137</v>
       </c>
       <c r="AD9" t="n">
-        <v>313575.4590937388</v>
+        <v>373424.3612683406</v>
       </c>
       <c r="AE9" t="n">
-        <v>429047.7771049569</v>
+        <v>510935.6854074646</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.501218572298981e-06</v>
+        <v>2.816874863459012e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>11</v>
+        <v>10.28645833333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>388100.0594303962</v>
+        <v>462172.7006949137</v>
       </c>
     </row>
     <row r="10">
@@ -39351,28 +39351,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>309.321954577009</v>
+        <v>369.1708567516108</v>
       </c>
       <c r="AB10" t="n">
-        <v>423.2279445737917</v>
+        <v>505.1158528762994</v>
       </c>
       <c r="AC10" t="n">
-        <v>382.8356635478191</v>
+        <v>456.9083048123367</v>
       </c>
       <c r="AD10" t="n">
-        <v>309321.954577009</v>
+        <v>369170.8567516108</v>
       </c>
       <c r="AE10" t="n">
-        <v>423227.9445737917</v>
+        <v>505115.8528762994</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.511277465054157e-06</v>
+        <v>2.835749291659626e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10.22135416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>382835.6635478191</v>
+        <v>456908.3048123367</v>
       </c>
     </row>
     <row r="11">
@@ -39457,28 +39457,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>306.6877072201668</v>
+        <v>366.5366093947686</v>
       </c>
       <c r="AB11" t="n">
-        <v>419.6236511253688</v>
+        <v>501.5115594278765</v>
       </c>
       <c r="AC11" t="n">
-        <v>379.5753588074562</v>
+        <v>453.6480000719737</v>
       </c>
       <c r="AD11" t="n">
-        <v>306687.7072201668</v>
+        <v>366536.6093947686</v>
       </c>
       <c r="AE11" t="n">
-        <v>419623.6511253688</v>
+        <v>501511.5594278765</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.51713724456012e-06</v>
+        <v>2.8467445363897e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10.18229166666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>379575.3588074562</v>
+        <v>453648.0000719737</v>
       </c>
     </row>
     <row r="12">
@@ -39563,28 +39563,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>302.9372227618737</v>
+        <v>362.7861249364755</v>
       </c>
       <c r="AB12" t="n">
-        <v>414.4920728298355</v>
+        <v>496.3799811323432</v>
       </c>
       <c r="AC12" t="n">
-        <v>374.9335311422332</v>
+        <v>449.0061724067506</v>
       </c>
       <c r="AD12" t="n">
-        <v>302937.2227618737</v>
+        <v>362786.1249364755</v>
       </c>
       <c r="AE12" t="n">
-        <v>414492.0728298355</v>
+        <v>496379.9811323432</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.522925852655079e-06</v>
+        <v>2.857606235637223e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>10.14322916666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>374933.5311422332</v>
+        <v>449006.1724067506</v>
       </c>
     </row>
     <row r="13">
@@ -39669,28 +39669,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>298.663035350137</v>
+        <v>358.5119375247388</v>
       </c>
       <c r="AB13" t="n">
-        <v>408.643941049257</v>
+        <v>490.5318493517647</v>
       </c>
       <c r="AC13" t="n">
-        <v>369.6435368508885</v>
+        <v>443.716178115406</v>
       </c>
       <c r="AD13" t="n">
-        <v>298663.035350137</v>
+        <v>358511.9375247388</v>
       </c>
       <c r="AE13" t="n">
-        <v>408643.9410492569</v>
+        <v>490531.8493517647</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.528429775106025e-06</v>
+        <v>2.867933752954539e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>369643.5368508885</v>
+        <v>443716.178115406</v>
       </c>
     </row>
     <row r="14">
@@ -39775,28 +39775,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>295.1755619844257</v>
+        <v>355.0244641590274</v>
       </c>
       <c r="AB14" t="n">
-        <v>403.8722261338244</v>
+        <v>485.7601344363321</v>
       </c>
       <c r="AC14" t="n">
-        <v>365.3272277098409</v>
+        <v>439.3998689743584</v>
       </c>
       <c r="AD14" t="n">
-        <v>295175.5619844257</v>
+        <v>355024.4641590274</v>
       </c>
       <c r="AE14" t="n">
-        <v>403872.2261338244</v>
+        <v>485760.1344363321</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.532984745410256e-06</v>
+        <v>2.876480663837836e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH14" t="n">
-        <v>365327.2277098409</v>
+        <v>439399.8689743584</v>
       </c>
     </row>
     <row r="15">
@@ -39881,28 +39881,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>293.4852291525135</v>
+        <v>353.3341313271152</v>
       </c>
       <c r="AB15" t="n">
-        <v>401.5594381809806</v>
+        <v>483.4473464834883</v>
       </c>
       <c r="AC15" t="n">
-        <v>363.2351689931982</v>
+        <v>437.3078102577157</v>
       </c>
       <c r="AD15" t="n">
-        <v>293485.2291525135</v>
+        <v>353334.1313271152</v>
       </c>
       <c r="AE15" t="n">
-        <v>401559.4381809806</v>
+        <v>483447.3464834883</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.539034315345562e-06</v>
+        <v>2.887832029854714e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.03255208333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>363235.1689931982</v>
+        <v>437307.8102577158</v>
       </c>
     </row>
     <row r="16">
@@ -39987,28 +39987,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>292.8169042343711</v>
+        <v>352.665806408973</v>
       </c>
       <c r="AB16" t="n">
-        <v>400.6450065435638</v>
+        <v>482.5329148460715</v>
       </c>
       <c r="AC16" t="n">
-        <v>362.4080094278436</v>
+        <v>436.4806506923612</v>
       </c>
       <c r="AD16" t="n">
-        <v>292816.9042343711</v>
+        <v>352665.8064089729</v>
       </c>
       <c r="AE16" t="n">
-        <v>400645.0065435638</v>
+        <v>482532.9148460715</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.53815653460985e-06</v>
+        <v>2.886184968903246e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>10.0390625</v>
       </c>
       <c r="AH16" t="n">
-        <v>362408.0094278436</v>
+        <v>436480.6506923612</v>
       </c>
     </row>
     <row r="17">
@@ -40093,28 +40093,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>293.5254319848311</v>
+        <v>353.3743341594329</v>
       </c>
       <c r="AB17" t="n">
-        <v>401.6144454697813</v>
+        <v>483.502353772289</v>
       </c>
       <c r="AC17" t="n">
-        <v>363.284926463559</v>
+        <v>437.3575677280766</v>
       </c>
       <c r="AD17" t="n">
-        <v>293525.4319848311</v>
+        <v>353374.3341594329</v>
       </c>
       <c r="AE17" t="n">
-        <v>401614.4454697813</v>
+        <v>483502.353772289</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.538203982217186e-06</v>
+        <v>2.886273999224947e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>11</v>
+        <v>10.0390625</v>
       </c>
       <c r="AH17" t="n">
-        <v>363284.926463559</v>
+        <v>437357.5677280765</v>
       </c>
     </row>
   </sheetData>
@@ -40390,28 +40390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>161.0361053512262</v>
+        <v>206.9224110219642</v>
       </c>
       <c r="AB2" t="n">
-        <v>220.3367037530123</v>
+        <v>283.1203715326185</v>
       </c>
       <c r="AC2" t="n">
-        <v>199.308077991394</v>
+        <v>256.0997606355658</v>
       </c>
       <c r="AD2" t="n">
-        <v>161036.1053512262</v>
+        <v>206922.4110219642</v>
       </c>
       <c r="AE2" t="n">
-        <v>220336.7037530123</v>
+        <v>283120.3715326185</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.88840411950459e-06</v>
+        <v>4.722755392776755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.5078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>199308.077991394</v>
+        <v>256099.7606355657</v>
       </c>
     </row>
   </sheetData>
@@ -40687,28 +40687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>305.8639367985482</v>
+        <v>381.3908839098054</v>
       </c>
       <c r="AB2" t="n">
-        <v>418.4965320923241</v>
+        <v>521.835833143691</v>
       </c>
       <c r="AC2" t="n">
-        <v>378.5558104330038</v>
+        <v>472.0325536296481</v>
       </c>
       <c r="AD2" t="n">
-        <v>305863.9367985482</v>
+        <v>381390.8839098054</v>
       </c>
       <c r="AE2" t="n">
-        <v>418496.5320923241</v>
+        <v>521835.833143691</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.431629265471467e-06</v>
+        <v>2.948130464544684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.88151041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>378555.8104330038</v>
+        <v>472032.5536296481</v>
       </c>
     </row>
     <row r="3">
@@ -40793,28 +40793,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>260.0627548745499</v>
+        <v>314.2178306008361</v>
       </c>
       <c r="AB3" t="n">
-        <v>355.8293343783703</v>
+        <v>429.9266981403981</v>
       </c>
       <c r="AC3" t="n">
-        <v>321.8694821149053</v>
+        <v>388.8950974757884</v>
       </c>
       <c r="AD3" t="n">
-        <v>260062.7548745498</v>
+        <v>314217.8306008361</v>
       </c>
       <c r="AE3" t="n">
-        <v>355829.3343783703</v>
+        <v>429926.6981403981</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.612382486841562e-06</v>
+        <v>3.320352583313872e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>321869.4821149053</v>
+        <v>388895.0974757884</v>
       </c>
     </row>
     <row r="4">
@@ -40899,28 +40899,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>247.811232036977</v>
+        <v>301.7957155626741</v>
       </c>
       <c r="AB4" t="n">
-        <v>339.0662603328021</v>
+        <v>412.9302123201471</v>
       </c>
       <c r="AC4" t="n">
-        <v>306.7062523292257</v>
+        <v>373.5207324075045</v>
       </c>
       <c r="AD4" t="n">
-        <v>247811.232036977</v>
+        <v>301795.7155626741</v>
       </c>
       <c r="AE4" t="n">
-        <v>339066.2603328021</v>
+        <v>412930.2123201471</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.67558602001506e-06</v>
+        <v>3.450506573672743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.14973958333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>306706.2523292257</v>
+        <v>373520.7324075045</v>
       </c>
     </row>
     <row r="5">
@@ -41005,28 +41005,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>227.6659601257341</v>
+        <v>292.3789602626512</v>
       </c>
       <c r="AB5" t="n">
-        <v>311.5026105571813</v>
+        <v>400.0457922807321</v>
       </c>
       <c r="AC5" t="n">
-        <v>281.7732386023559</v>
+        <v>361.8659833332541</v>
       </c>
       <c r="AD5" t="n">
-        <v>227665.9601257341</v>
+        <v>292378.9602626512</v>
       </c>
       <c r="AE5" t="n">
-        <v>311502.6105571813</v>
+        <v>400045.7922807321</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.706573779561884e-06</v>
+        <v>3.514319154311693e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>10</v>
+        <v>9.967447916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>281773.2386023559</v>
+        <v>361865.9833332541</v>
       </c>
     </row>
     <row r="6">
@@ -41111,28 +41111,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>222.8046834895595</v>
+        <v>276.8744183612769</v>
       </c>
       <c r="AB6" t="n">
-        <v>304.8511973991814</v>
+        <v>378.8317940391581</v>
       </c>
       <c r="AC6" t="n">
-        <v>275.7566269808365</v>
+        <v>342.6766193098225</v>
       </c>
       <c r="AD6" t="n">
-        <v>222804.6834895595</v>
+        <v>276874.4183612769</v>
       </c>
       <c r="AE6" t="n">
-        <v>304851.1973991814</v>
+        <v>378831.7940391582</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.724340791780974e-06</v>
+        <v>3.550906468674666e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>9.86328125</v>
       </c>
       <c r="AH6" t="n">
-        <v>275756.6269808365</v>
+        <v>342676.6193098224</v>
       </c>
     </row>
     <row r="7">
@@ -41217,28 +41217,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>221.5340191511521</v>
+        <v>275.6037540228694</v>
       </c>
       <c r="AB7" t="n">
-        <v>303.112618393619</v>
+        <v>377.0932150335948</v>
       </c>
       <c r="AC7" t="n">
-        <v>274.1839755154534</v>
+        <v>341.1039678444391</v>
       </c>
       <c r="AD7" t="n">
-        <v>221534.0191511521</v>
+        <v>275603.7540228694</v>
       </c>
       <c r="AE7" t="n">
-        <v>303112.618393619</v>
+        <v>377093.2150335949</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.727240995246149e-06</v>
+        <v>3.556878809695681e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.850260416666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>274183.9755154534</v>
+        <v>341103.9678444391</v>
       </c>
     </row>
   </sheetData>
@@ -41514,28 +41514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>373.3821199700661</v>
+        <v>452.1259304169093</v>
       </c>
       <c r="AB2" t="n">
-        <v>510.8778889996108</v>
+        <v>618.6186443847208</v>
       </c>
       <c r="AC2" t="n">
-        <v>462.1204202951078</v>
+        <v>559.5785492013628</v>
       </c>
       <c r="AD2" t="n">
-        <v>373382.1199700661</v>
+        <v>452125.9304169093</v>
       </c>
       <c r="AE2" t="n">
-        <v>510877.8889996108</v>
+        <v>618618.6443847208</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.274912193946941e-06</v>
+        <v>2.525835782565865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.84505208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>462120.4202951078</v>
+        <v>559578.5492013628</v>
       </c>
     </row>
     <row r="3">
@@ -41620,28 +41620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>311.164418200181</v>
+        <v>367.4710443525998</v>
       </c>
       <c r="AB3" t="n">
-        <v>425.748884586774</v>
+        <v>502.790094561542</v>
       </c>
       <c r="AC3" t="n">
-        <v>385.1160085841238</v>
+        <v>454.8045136069175</v>
       </c>
       <c r="AD3" t="n">
-        <v>311164.418200181</v>
+        <v>367471.0443525998</v>
       </c>
       <c r="AE3" t="n">
-        <v>425748.8845867739</v>
+        <v>502790.094561542</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.482898895463353e-06</v>
+        <v>2.937895731072299e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.04166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>385116.0085841239</v>
+        <v>454804.5136069175</v>
       </c>
     </row>
     <row r="4">
@@ -41726,28 +41726,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>283.9047248262882</v>
+        <v>340.2966023247276</v>
       </c>
       <c r="AB4" t="n">
-        <v>388.4509694998183</v>
+        <v>465.6088241272357</v>
       </c>
       <c r="AC4" t="n">
-        <v>351.3777541651147</v>
+        <v>421.1717714386205</v>
       </c>
       <c r="AD4" t="n">
-        <v>283904.7248262882</v>
+        <v>340296.6023247276</v>
       </c>
       <c r="AE4" t="n">
-        <v>388450.9694998183</v>
+        <v>465608.8241272357</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.557636255188228e-06</v>
+        <v>3.085964200715818e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.51432291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>351377.7541651147</v>
+        <v>421171.7714386205</v>
       </c>
     </row>
     <row r="5">
@@ -41832,28 +41832,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>274.0681387561297</v>
+        <v>330.2894240539769</v>
       </c>
       <c r="AB5" t="n">
-        <v>374.9921184790774</v>
+        <v>451.9165613316479</v>
       </c>
       <c r="AC5" t="n">
-        <v>339.2033969961773</v>
+        <v>408.786278987032</v>
       </c>
       <c r="AD5" t="n">
-        <v>274068.1387561297</v>
+        <v>330289.4240539769</v>
       </c>
       <c r="AE5" t="n">
-        <v>374992.1184790774</v>
+        <v>451916.5613316479</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.599117879619839e-06</v>
+        <v>3.168146935970669e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.24088541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>339203.3969961773</v>
+        <v>408786.278987032</v>
       </c>
     </row>
     <row r="6">
@@ -41938,28 +41938,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>267.2879172794916</v>
+        <v>323.5092025773388</v>
       </c>
       <c r="AB6" t="n">
-        <v>365.7151203324806</v>
+        <v>442.6395631850511</v>
       </c>
       <c r="AC6" t="n">
-        <v>330.811782532343</v>
+        <v>400.3946645231977</v>
       </c>
       <c r="AD6" t="n">
-        <v>267287.9172794916</v>
+        <v>323509.2025773388</v>
       </c>
       <c r="AE6" t="n">
-        <v>365715.1203324806</v>
+        <v>442639.5631850511</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.621179362110151e-06</v>
+        <v>3.211854794562849e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.10416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>330811.782532343</v>
+        <v>400394.6645231977</v>
       </c>
     </row>
     <row r="7">
@@ -42044,28 +42044,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>249.7127734841201</v>
+        <v>317.1099357476214</v>
       </c>
       <c r="AB7" t="n">
-        <v>341.66803323087</v>
+        <v>433.8838039929039</v>
       </c>
       <c r="AC7" t="n">
-        <v>309.0597156735141</v>
+        <v>392.474542699564</v>
       </c>
       <c r="AD7" t="n">
-        <v>249712.7734841201</v>
+        <v>317109.9357476213</v>
       </c>
       <c r="AE7" t="n">
-        <v>341668.03323087</v>
+        <v>433883.8039929039</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.637706607259677e-06</v>
+        <v>3.24459831006463e-06</v>
       </c>
       <c r="AG7" t="n">
         <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>309059.7156735141</v>
+        <v>392474.542699564</v>
       </c>
     </row>
     <row r="8">
@@ -42150,28 +42150,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>245.9377917213823</v>
+        <v>313.3349539848834</v>
       </c>
       <c r="AB8" t="n">
-        <v>336.5029366426532</v>
+        <v>428.7187074046844</v>
       </c>
       <c r="AC8" t="n">
-        <v>304.3875686544164</v>
+        <v>387.8023956804655</v>
       </c>
       <c r="AD8" t="n">
-        <v>245937.7917213823</v>
+        <v>313334.9539848834</v>
       </c>
       <c r="AE8" t="n">
-        <v>336502.9366426532</v>
+        <v>428718.7074046844</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.646485920132104e-06</v>
+        <v>3.261991745239854e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>9.947916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>304387.5686544164</v>
+        <v>387802.3956804655</v>
       </c>
     </row>
     <row r="9">
@@ -42256,28 +42256,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>242.7141745263901</v>
+        <v>299.0207111702609</v>
       </c>
       <c r="AB9" t="n">
-        <v>332.0922413805135</v>
+        <v>409.1333288858938</v>
       </c>
       <c r="AC9" t="n">
-        <v>300.3978239576442</v>
+        <v>370.0862181992569</v>
       </c>
       <c r="AD9" t="n">
-        <v>242714.1745263901</v>
+        <v>299020.7111702609</v>
       </c>
       <c r="AE9" t="n">
-        <v>332092.2413805135</v>
+        <v>409133.3288858938</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.655391011125913e-06</v>
+        <v>3.279634370030767e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>300397.8239576442</v>
+        <v>370086.2181992569</v>
       </c>
     </row>
     <row r="10">
@@ -42362,28 +42362,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>243.1310790942033</v>
+        <v>299.437615738074</v>
       </c>
       <c r="AB10" t="n">
-        <v>332.6626686027267</v>
+        <v>409.7037561081073</v>
       </c>
       <c r="AC10" t="n">
-        <v>300.9138104063692</v>
+        <v>370.602204647982</v>
       </c>
       <c r="AD10" t="n">
-        <v>243131.0790942033</v>
+        <v>299437.6157380741</v>
       </c>
       <c r="AE10" t="n">
-        <v>332662.6686027267</v>
+        <v>409703.7561081073</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.655240077380255e-06</v>
+        <v>3.279335342491938e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>9.895833333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>300913.8104063692</v>
+        <v>370602.204647982</v>
       </c>
     </row>
   </sheetData>
